--- a/data/Chinese_Stock/lead.xlsx
+++ b/data/Chinese_Stock/lead.xlsx
@@ -621,11 +621,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,16 +971,17 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1051,76 +1056,76 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+        <v>1481</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2">
-        <v>34.28</v>
+        <v>10.81</v>
       </c>
       <c r="G2">
-        <v>14.37</v>
+        <v>97.09</v>
       </c>
       <c r="H2">
-        <v>14.37</v>
+        <v>110.39</v>
       </c>
       <c r="I2">
-        <v>2317898.5</v>
+        <v>83067424</v>
       </c>
       <c r="J2">
-        <v>700880.88</v>
+        <v>72129544</v>
       </c>
       <c r="K2">
-        <v>140467.79999999999</v>
+        <v>681079.31</v>
       </c>
       <c r="L2">
-        <v>91915.5</v>
+        <v>826826.75</v>
       </c>
       <c r="M2">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
-        <v>0.33300000000000002</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="O2">
-        <v>7.36</v>
+        <v>10.28</v>
       </c>
       <c r="P2">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>19920902</v>
+        <v>19910129</v>
       </c>
       <c r="R2">
-        <v>592560.06000000006</v>
+        <v>6120027</v>
       </c>
       <c r="S2">
-        <v>4.12</v>
+        <v>5.54</v>
       </c>
       <c r="T2">
-        <v>-10.87</v>
+        <v>22.98</v>
       </c>
       <c r="U2">
-        <v>-43.6</v>
+        <v>16.02</v>
       </c>
       <c r="V2">
-        <v>15.76</v>
+        <v>29.41</v>
       </c>
       <c r="W2">
-        <v>3.06</v>
+        <v>8.74</v>
       </c>
       <c r="X2">
-        <v>112681</v>
+        <v>339309</v>
       </c>
       <c r="Y2" t="s">
         <v>178</v>
@@ -1128,76 +1133,76 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3">
-        <v>37.39</v>
+        <v>23.75</v>
       </c>
       <c r="G3">
-        <v>208.24</v>
+        <v>13.04</v>
       </c>
       <c r="H3">
-        <v>282.64999999999998</v>
+        <v>20.75</v>
       </c>
       <c r="I3">
-        <v>269695104</v>
+        <v>1692808.75</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>211997.3</v>
       </c>
       <c r="K3">
-        <v>1935600</v>
+        <v>1129666.75</v>
       </c>
       <c r="L3">
-        <v>5500700</v>
+        <v>126059.17</v>
       </c>
       <c r="M3">
-        <v>1.95</v>
+        <v>0.61</v>
       </c>
       <c r="N3">
-        <v>0.66</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="O3">
-        <v>10.74</v>
+        <v>3.84</v>
       </c>
       <c r="P3">
-        <v>2.36</v>
+        <v>2.84</v>
       </c>
       <c r="Q3">
-        <v>20070109</v>
+        <v>19920228</v>
       </c>
       <c r="R3">
-        <v>12255800</v>
+        <v>372950.53</v>
       </c>
       <c r="S3">
-        <v>4.34</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>7.51</v>
+        <v>21.29</v>
       </c>
       <c r="U3">
-        <v>-44.88</v>
+        <v>81.41</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>27.48</v>
       </c>
       <c r="W3">
-        <v>3.48</v>
+        <v>10.96</v>
       </c>
       <c r="X3">
-        <v>157327</v>
+        <v>171075</v>
       </c>
       <c r="Y3" t="s">
         <v>178</v>
@@ -1205,76 +1210,76 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4">
-        <v>23.75</v>
+        <v>34.28</v>
       </c>
       <c r="G4">
-        <v>13.04</v>
+        <v>14.37</v>
       </c>
       <c r="H4">
-        <v>20.75</v>
+        <v>14.37</v>
       </c>
       <c r="I4">
-        <v>1692808.75</v>
+        <v>2317898.5</v>
       </c>
       <c r="J4">
-        <v>211997.3</v>
+        <v>700880.88</v>
       </c>
       <c r="K4">
-        <v>1129666.75</v>
+        <v>140467.79999999999</v>
       </c>
       <c r="L4">
-        <v>126059.17</v>
+        <v>91915.5</v>
       </c>
       <c r="M4">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="N4">
-        <v>0.34399999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O4">
-        <v>3.84</v>
+        <v>7.36</v>
       </c>
       <c r="P4">
-        <v>2.84</v>
+        <v>1.55</v>
       </c>
       <c r="Q4">
-        <v>19920228</v>
+        <v>19920902</v>
       </c>
       <c r="R4">
-        <v>372950.53</v>
+        <v>592560.06000000006</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>4.12</v>
       </c>
       <c r="T4">
-        <v>21.29</v>
+        <v>-10.87</v>
       </c>
       <c r="U4">
-        <v>81.41</v>
+        <v>-43.6</v>
       </c>
       <c r="V4">
-        <v>27.48</v>
+        <v>15.76</v>
       </c>
       <c r="W4">
-        <v>10.96</v>
+        <v>3.06</v>
       </c>
       <c r="X4">
-        <v>171075</v>
+        <v>112681</v>
       </c>
       <c r="Y4" t="s">
         <v>178</v>
@@ -1282,76 +1287,76 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>162</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.04</v>
       </c>
       <c r="G5">
-        <v>13.78</v>
+        <v>20.03</v>
       </c>
       <c r="H5">
-        <v>13.78</v>
+        <v>25.09</v>
       </c>
       <c r="I5">
-        <v>5170423</v>
+        <v>2986584.5</v>
       </c>
       <c r="J5">
-        <v>3601232.75</v>
+        <v>1496795.88</v>
       </c>
       <c r="K5">
-        <v>1132721.6299999999</v>
+        <v>926746.5</v>
       </c>
       <c r="L5">
-        <v>462036.56</v>
+        <v>622875.31000000006</v>
       </c>
       <c r="M5">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="N5">
-        <v>-0.317</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="O5">
-        <v>12.42</v>
+        <v>7.19</v>
       </c>
       <c r="P5">
-        <v>2.2799999999999998</v>
+        <v>3.15</v>
       </c>
       <c r="Q5">
-        <v>19980520</v>
+        <v>19930610</v>
       </c>
       <c r="R5">
-        <v>1049208.25</v>
+        <v>757088.94</v>
       </c>
       <c r="S5">
-        <v>7.61</v>
+        <v>3.02</v>
       </c>
       <c r="T5">
-        <v>-20.52</v>
+        <v>22.45</v>
       </c>
       <c r="U5">
-        <v>-355.48</v>
+        <v>20.68</v>
       </c>
       <c r="V5">
-        <v>9.65</v>
+        <v>43.07</v>
       </c>
       <c r="W5">
-        <v>-2.5099999999999998</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="X5">
-        <v>135039</v>
+        <v>60181</v>
       </c>
       <c r="Y5" t="s">
         <v>178</v>
@@ -1359,76 +1364,76 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>193</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+        <v>1469</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6">
-        <v>25.47</v>
+        <v>20.77</v>
       </c>
       <c r="G6">
-        <v>18.47</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="H6">
-        <v>18.63</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="I6">
-        <v>1775911.25</v>
+        <v>3042811.5</v>
       </c>
       <c r="J6">
-        <v>1230210.5</v>
+        <v>2565958</v>
       </c>
       <c r="K6">
-        <v>100489.8</v>
+        <v>9327.3700000000008</v>
       </c>
       <c r="L6">
-        <v>21611.65</v>
+        <v>6035.75</v>
       </c>
       <c r="M6">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="N6">
-        <v>0.83</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="O6">
-        <v>4.9800000000000004</v>
+        <v>1.75</v>
       </c>
       <c r="P6">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="Q6">
-        <v>20030711</v>
+        <v>19930924</v>
       </c>
       <c r="R6">
-        <v>572147.38</v>
+        <v>83407.86</v>
       </c>
       <c r="S6">
-        <v>3.07</v>
+        <v>0.45</v>
       </c>
       <c r="T6">
-        <v>14.43</v>
+        <v>205.01</v>
       </c>
       <c r="U6">
-        <v>-1.21</v>
+        <v>126.35</v>
       </c>
       <c r="V6">
-        <v>17.100000000000001</v>
+        <v>29.16</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>4.62</v>
       </c>
       <c r="X6">
-        <v>84333</v>
+        <v>99388</v>
       </c>
       <c r="Y6" t="s">
         <v>178</v>
@@ -1436,76 +1441,76 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
+        <v>1951</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F7">
-        <v>33.880000000000003</v>
+        <v>346.63</v>
       </c>
       <c r="G7">
-        <v>5.79</v>
+        <v>4.16</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>5.22</v>
       </c>
       <c r="I7">
-        <v>646022.13</v>
+        <v>1300654</v>
       </c>
       <c r="J7">
-        <v>548989</v>
+        <v>914475.38</v>
       </c>
       <c r="K7">
-        <v>55593.8</v>
+        <v>145834.06</v>
       </c>
       <c r="L7">
-        <v>8142.47</v>
+        <v>212387.3</v>
       </c>
       <c r="M7">
-        <v>0.11</v>
+        <v>4.07</v>
       </c>
       <c r="N7">
-        <v>0.49</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O7">
-        <v>5.53</v>
+        <v>5.97</v>
       </c>
       <c r="P7">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="Q7">
-        <v>20040805</v>
+        <v>19930928</v>
       </c>
       <c r="R7">
-        <v>305399.5</v>
+        <v>46009.62</v>
       </c>
       <c r="S7">
-        <v>4.0199999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="T7">
-        <v>10.16</v>
+        <v>119.8</v>
       </c>
       <c r="U7">
-        <v>-8.0299999999999994</v>
+        <v>142.83000000000001</v>
       </c>
       <c r="V7">
-        <v>35.270000000000003</v>
+        <v>13.43</v>
       </c>
       <c r="W7">
-        <v>7.98</v>
+        <v>0.24</v>
       </c>
       <c r="X7">
-        <v>38905</v>
+        <v>81460</v>
       </c>
       <c r="Y7" t="s">
         <v>178</v>
@@ -1513,76 +1518,76 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>303</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+        <v>2296</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>28.17</v>
       </c>
       <c r="G8">
-        <v>50.18</v>
+        <v>10.41</v>
       </c>
       <c r="H8">
-        <v>93.1</v>
+        <v>10.41</v>
       </c>
       <c r="I8">
-        <v>13365485</v>
+        <v>2283942</v>
       </c>
       <c r="J8">
-        <v>7511211</v>
+        <v>2048007.75</v>
       </c>
       <c r="K8">
-        <v>1253429.75</v>
+        <v>158261.95000000001</v>
       </c>
       <c r="L8">
-        <v>3240356.25</v>
+        <v>124985.65</v>
       </c>
       <c r="M8">
-        <v>3.48</v>
+        <v>1.2</v>
       </c>
       <c r="N8">
-        <v>-0.04</v>
+        <v>2.266</v>
       </c>
       <c r="O8">
-        <v>6.9</v>
+        <v>14.57</v>
       </c>
       <c r="P8">
-        <v>1.57</v>
+        <v>5.84</v>
       </c>
       <c r="Q8">
-        <v>20040721</v>
+        <v>19931215</v>
       </c>
       <c r="R8">
-        <v>1586162.25</v>
+        <v>1210628.5</v>
       </c>
       <c r="S8">
-        <v>1.7</v>
+        <v>11.63</v>
       </c>
       <c r="T8">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="U8">
-        <v>-672.42</v>
+        <v>10.16</v>
       </c>
       <c r="V8">
-        <v>14.46</v>
+        <v>31.01</v>
       </c>
       <c r="W8">
-        <v>-0.28999999999999998</v>
+        <v>14.49</v>
       </c>
       <c r="X8">
-        <v>478692</v>
+        <v>38673</v>
       </c>
       <c r="Y8" t="s">
         <v>178</v>
@@ -1590,76 +1595,76 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>342</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
+        <v>346</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F9">
-        <v>1027.68</v>
+        <v>36.83</v>
       </c>
       <c r="G9">
-        <v>211.97</v>
+        <v>28.62</v>
       </c>
       <c r="H9">
-        <v>211.97</v>
+        <v>30.9</v>
       </c>
       <c r="I9">
-        <v>61590732</v>
+        <v>950466.69</v>
       </c>
       <c r="J9">
-        <v>8223389</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>37109980</v>
+        <v>7997.22</v>
       </c>
       <c r="L9">
-        <v>2781153.25</v>
+        <v>274413.09000000003</v>
       </c>
       <c r="M9">
-        <v>1.31</v>
+        <v>0.89</v>
       </c>
       <c r="N9">
-        <v>6.9999999999999993E-3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O9">
-        <v>3.66</v>
+        <v>2.5</v>
       </c>
       <c r="P9">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="Q9">
-        <v>20021009</v>
+        <v>19940110</v>
       </c>
       <c r="R9">
-        <v>2943286</v>
+        <v>149405.76999999999</v>
       </c>
       <c r="S9">
-        <v>1.39</v>
+        <v>0.48</v>
       </c>
       <c r="T9">
-        <v>-1.03</v>
+        <v>-11.94</v>
       </c>
       <c r="U9">
-        <v>-95.56</v>
+        <v>13.5</v>
       </c>
       <c r="V9">
-        <v>22.83</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.06</v>
+        <v>50.83</v>
       </c>
       <c r="X9">
-        <v>633697</v>
+        <v>99815</v>
       </c>
       <c r="Y9" t="s">
         <v>178</v>
@@ -1667,76 +1672,76 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>346</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
+        <v>1401</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10">
-        <v>36.83</v>
+        <v>88.88</v>
       </c>
       <c r="G10">
-        <v>28.62</v>
+        <v>12.62</v>
       </c>
       <c r="H10">
-        <v>30.9</v>
+        <v>29.79</v>
       </c>
       <c r="I10">
-        <v>950466.69</v>
+        <v>12461475</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5335203</v>
       </c>
       <c r="K10">
-        <v>7997.22</v>
+        <v>2203726</v>
       </c>
       <c r="L10">
-        <v>274413.09000000003</v>
+        <v>312658.5</v>
       </c>
       <c r="M10">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="N10">
-        <v>0.16700000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O10">
-        <v>2.5</v>
+        <v>9.83</v>
       </c>
       <c r="P10">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="Q10">
-        <v>19940110</v>
+        <v>19940408</v>
       </c>
       <c r="R10">
-        <v>149405.76999999999</v>
+        <v>1749505.25</v>
       </c>
       <c r="S10">
-        <v>0.48</v>
+        <v>5.87</v>
       </c>
       <c r="T10">
-        <v>-11.94</v>
+        <v>-12.91</v>
       </c>
       <c r="U10">
-        <v>13.5</v>
+        <v>-73.37</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>18.84</v>
       </c>
       <c r="W10">
-        <v>50.83</v>
+        <v>1.06</v>
       </c>
       <c r="X10">
-        <v>99815</v>
+        <v>77211</v>
       </c>
       <c r="Y10" t="s">
         <v>178</v>
@@ -1744,76 +1749,76 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>410</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
+        <v>1780</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F11">
-        <v>34.97</v>
+        <v>11.24</v>
       </c>
       <c r="G11">
-        <v>7.55</v>
+        <v>67.86</v>
       </c>
       <c r="H11">
-        <v>7.56</v>
+        <v>67.86</v>
       </c>
       <c r="I11">
-        <v>745572.94</v>
+        <v>19883628</v>
       </c>
       <c r="J11">
-        <v>506380</v>
+        <v>1336194.1299999999</v>
       </c>
       <c r="K11">
-        <v>41964.55</v>
+        <v>12589430</v>
       </c>
       <c r="L11">
-        <v>187980.25</v>
+        <v>647237</v>
       </c>
       <c r="M11">
-        <v>2.4900000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="N11">
-        <v>0.223</v>
+        <v>0.502</v>
       </c>
       <c r="O11">
-        <v>6.75</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P11">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="Q11">
-        <v>20040806</v>
+        <v>19960118</v>
       </c>
       <c r="R11">
-        <v>190461.06</v>
+        <v>1402043.88</v>
       </c>
       <c r="S11">
-        <v>2.52</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T11">
-        <v>1.29</v>
+        <v>-9.23</v>
       </c>
       <c r="U11">
-        <v>-7.16</v>
+        <v>-24.84</v>
       </c>
       <c r="V11">
-        <v>40.46</v>
+        <v>52.83</v>
       </c>
       <c r="W11">
-        <v>9.43</v>
+        <v>15.4</v>
       </c>
       <c r="X11">
-        <v>45907</v>
+        <v>256080</v>
       </c>
       <c r="Y11" t="s">
         <v>178</v>
@@ -1821,76 +1826,76 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
+        <v>1785</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F12">
-        <v>19.7</v>
+        <v>356.21</v>
       </c>
       <c r="G12">
-        <v>227.55</v>
+        <v>13.47</v>
       </c>
       <c r="H12">
-        <v>231.74</v>
+        <v>13.48</v>
       </c>
       <c r="I12">
-        <v>11678478</v>
+        <v>4148004.5</v>
       </c>
       <c r="J12">
-        <v>2374656</v>
+        <v>1067384</v>
       </c>
       <c r="K12">
-        <v>3468801.5</v>
+        <v>2332499.75</v>
       </c>
       <c r="L12">
-        <v>858377.88</v>
+        <v>492174.91</v>
       </c>
       <c r="M12">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="N12">
-        <v>0.29899999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O12">
-        <v>2.62</v>
+        <v>7.41</v>
       </c>
       <c r="P12">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q12">
-        <v>20061026</v>
+        <v>19960614</v>
       </c>
       <c r="R12">
-        <v>2432034.5</v>
+        <v>257862.52</v>
       </c>
       <c r="S12">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="T12">
-        <v>6.26</v>
+        <v>11.05</v>
       </c>
       <c r="U12">
-        <v>5.74</v>
+        <v>103.08</v>
       </c>
       <c r="V12">
-        <v>30.08</v>
+        <v>24.17</v>
       </c>
       <c r="W12">
-        <v>22.13</v>
+        <v>0.43</v>
       </c>
       <c r="X12">
-        <v>273125</v>
+        <v>50718</v>
       </c>
       <c r="Y12" t="s">
         <v>178</v>
@@ -1898,76 +1903,76 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>501</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
+        <v>1668</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13">
-        <v>236.87</v>
+        <v>14.48</v>
       </c>
       <c r="G13">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H13">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="I13">
+        <v>5748587</v>
+      </c>
+      <c r="J13">
+        <v>5184122.5</v>
+      </c>
+      <c r="K13">
+        <v>140443.34</v>
+      </c>
+      <c r="L13">
+        <v>179006.88</v>
+      </c>
+      <c r="M13">
+        <v>1.08</v>
+      </c>
+      <c r="N13">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="O13">
+        <v>5.28</v>
+      </c>
+      <c r="P13">
+        <v>1.72</v>
+      </c>
+      <c r="Q13">
+        <v>19961003</v>
+      </c>
+      <c r="R13">
+        <v>454763.5</v>
+      </c>
+      <c r="S13">
+        <v>2.73</v>
+      </c>
+      <c r="T13">
+        <v>52.93</v>
+      </c>
+      <c r="U13">
         <v>75.94</v>
       </c>
-      <c r="H13">
-        <v>76.58</v>
-      </c>
-      <c r="I13">
-        <v>6003771.5</v>
-      </c>
-      <c r="J13">
-        <v>3570230.5</v>
-      </c>
-      <c r="K13">
-        <v>1496619.38</v>
-      </c>
-      <c r="L13">
-        <v>55998.6</v>
-      </c>
-      <c r="M13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N13">
-        <v>2.3E-2</v>
-      </c>
-      <c r="O13">
-        <v>3.07</v>
-      </c>
-      <c r="P13">
-        <v>2.35</v>
-      </c>
-      <c r="Q13">
-        <v>20030703</v>
-      </c>
-      <c r="R13">
-        <v>1357585.25</v>
-      </c>
-      <c r="S13">
-        <v>1.77</v>
-      </c>
-      <c r="T13">
-        <v>-11.04</v>
-      </c>
-      <c r="U13">
-        <v>328.48</v>
-      </c>
       <c r="V13">
-        <v>26.5</v>
+        <v>5.68</v>
       </c>
       <c r="W13">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="X13">
-        <v>451598</v>
+        <v>124475</v>
       </c>
       <c r="Y13" t="s">
         <v>178</v>
@@ -1975,76 +1980,76 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>569</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>1388</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14">
-        <v>95.6</v>
+        <v>112.81</v>
       </c>
       <c r="G14">
-        <v>11.82</v>
+        <v>22.11</v>
       </c>
       <c r="H14">
-        <v>11.82</v>
+        <v>22.13</v>
       </c>
       <c r="I14">
-        <v>1085763.75</v>
+        <v>1639804.5</v>
       </c>
       <c r="J14">
-        <v>829955.25</v>
+        <v>544390.81000000006</v>
       </c>
       <c r="K14">
-        <v>64644.31</v>
+        <v>482405.81</v>
       </c>
       <c r="L14">
-        <v>161287.60999999999</v>
+        <v>147347.17000000001</v>
       </c>
       <c r="M14">
-        <v>1.36</v>
+        <v>0.67</v>
       </c>
       <c r="N14">
-        <v>0.33600000000000002</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="O14">
-        <v>4.12</v>
+        <v>3.44</v>
       </c>
       <c r="P14">
-        <v>7.8</v>
+        <v>3.24</v>
       </c>
       <c r="Q14">
-        <v>19970908</v>
+        <v>19970123</v>
       </c>
       <c r="R14">
-        <v>196923.72</v>
+        <v>338872.97</v>
       </c>
       <c r="S14">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="T14">
-        <v>16.309999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="U14">
-        <v>3.69</v>
+        <v>62.1</v>
       </c>
       <c r="V14">
-        <v>13.51</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="W14">
-        <v>6.28</v>
+        <v>1.48</v>
       </c>
       <c r="X14">
-        <v>147036</v>
+        <v>161460</v>
       </c>
       <c r="Y14" t="s">
         <v>178</v>
@@ -2052,76 +2057,76 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>834</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
+        <v>874</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F15">
-        <v>91.82</v>
+        <v>9.92</v>
       </c>
       <c r="G15">
-        <v>4.07</v>
+        <v>196.5</v>
       </c>
       <c r="H15">
-        <v>5.47</v>
+        <v>196.5</v>
       </c>
       <c r="I15">
-        <v>767241.38</v>
+        <v>25593970</v>
       </c>
       <c r="J15">
-        <v>591688.18999999994</v>
+        <v>1800148.75</v>
       </c>
       <c r="K15">
-        <v>56098.05</v>
+        <v>17629602</v>
       </c>
       <c r="L15">
-        <v>170119.16</v>
+        <v>640570.38</v>
       </c>
       <c r="M15">
-        <v>3.11</v>
+        <v>0.33</v>
       </c>
       <c r="N15">
-        <v>9.6000000000000002E-2</v>
+        <v>0.24</v>
       </c>
       <c r="O15">
-        <v>4.6399999999999997</v>
+        <v>2.7</v>
       </c>
       <c r="P15">
-        <v>2.52</v>
+        <v>1.21</v>
       </c>
       <c r="Q15">
-        <v>20020722</v>
+        <v>19970318</v>
       </c>
       <c r="R15">
-        <v>25963.25</v>
+        <v>1959330.38</v>
       </c>
       <c r="S15">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.63</v>
+        <v>-0.27</v>
       </c>
       <c r="U15">
-        <v>-18.190000000000001</v>
+        <v>-3.93</v>
       </c>
       <c r="V15">
-        <v>17.54</v>
+        <v>30.32</v>
       </c>
       <c r="W15">
-        <v>2.17</v>
+        <v>11.74</v>
       </c>
       <c r="X15">
-        <v>75743</v>
+        <v>831855</v>
       </c>
       <c r="Y15" t="s">
         <v>178</v>
@@ -2129,76 +2134,76 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>840</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
+        <v>569</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
         <v>164</v>
       </c>
       <c r="F16">
-        <v>74.260000000000005</v>
+        <v>95.6</v>
       </c>
       <c r="G16">
-        <v>34.51</v>
+        <v>11.82</v>
       </c>
       <c r="H16">
-        <v>34.51</v>
+        <v>11.82</v>
       </c>
       <c r="I16">
-        <v>3970576.75</v>
+        <v>1085763.75</v>
       </c>
       <c r="J16">
-        <v>1609219.75</v>
+        <v>829955.25</v>
       </c>
       <c r="K16">
-        <v>1201852.1299999999</v>
+        <v>64644.31</v>
       </c>
       <c r="L16">
-        <v>415878.34</v>
+        <v>161287.60999999999</v>
       </c>
       <c r="M16">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="N16">
-        <v>0.11799999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="O16">
-        <v>3.88</v>
+        <v>4.12</v>
       </c>
       <c r="P16">
-        <v>3.02</v>
+        <v>7.8</v>
       </c>
       <c r="Q16">
-        <v>20030814</v>
+        <v>19970908</v>
       </c>
       <c r="R16">
-        <v>509521.06</v>
+        <v>196923.72</v>
       </c>
       <c r="S16">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="T16">
-        <v>-33.82</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="U16">
-        <v>454.37</v>
+        <v>3.69</v>
       </c>
       <c r="V16">
-        <v>12.34</v>
+        <v>13.51</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>6.28</v>
       </c>
       <c r="X16">
-        <v>259218</v>
+        <v>147036</v>
       </c>
       <c r="Y16" t="s">
         <v>178</v>
@@ -2206,76 +2211,76 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>874</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+        <v>1100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F17">
-        <v>9.92</v>
+        <v>15.4</v>
       </c>
       <c r="G17">
-        <v>196.5</v>
+        <v>61.22</v>
       </c>
       <c r="H17">
-        <v>196.5</v>
+        <v>82.06</v>
       </c>
       <c r="I17">
-        <v>25593970</v>
+        <v>13574926</v>
       </c>
       <c r="J17">
-        <v>1800148.75</v>
+        <v>9831231</v>
       </c>
       <c r="K17">
-        <v>17629602</v>
+        <v>1458383.25</v>
       </c>
       <c r="L17">
-        <v>640570.38</v>
+        <v>553591.88</v>
       </c>
       <c r="M17">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="N17">
-        <v>0.24</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>4.84</v>
       </c>
       <c r="P17">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="Q17">
-        <v>19970318</v>
+        <v>19970910</v>
       </c>
       <c r="R17">
-        <v>1959330.38</v>
+        <v>2412827.5</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2.94</v>
       </c>
       <c r="T17">
-        <v>-0.27</v>
+        <v>9.25</v>
       </c>
       <c r="U17">
-        <v>-3.93</v>
+        <v>17.09</v>
       </c>
       <c r="V17">
-        <v>30.32</v>
+        <v>46.53</v>
       </c>
       <c r="W17">
-        <v>11.74</v>
+        <v>15.31</v>
       </c>
       <c r="X17">
-        <v>831855</v>
+        <v>113320</v>
       </c>
       <c r="Y17" t="s">
         <v>178</v>
@@ -2283,76 +2288,76 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>879</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
+        <v>1376</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F18">
-        <v>13.01</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="G18">
+        <v>110.26</v>
+      </c>
+      <c r="H18">
+        <v>116.83</v>
+      </c>
+      <c r="I18">
+        <v>54494580</v>
+      </c>
+      <c r="J18">
+        <v>29309072</v>
+      </c>
+      <c r="K18">
+        <v>4209782.5</v>
+      </c>
+      <c r="L18">
+        <v>4098541.5</v>
+      </c>
+      <c r="M18">
+        <v>3.51</v>
+      </c>
+      <c r="N18">
+        <v>1.976</v>
+      </c>
+      <c r="O18">
+        <v>16.7</v>
+      </c>
+      <c r="P18">
+        <v>1.52</v>
+      </c>
+      <c r="Q18">
+        <v>19971125</v>
+      </c>
+      <c r="R18">
+        <v>9434767</v>
+      </c>
+      <c r="S18">
+        <v>8.08</v>
+      </c>
+      <c r="T18">
         <v>11.5</v>
       </c>
-      <c r="H18">
-        <v>11.5</v>
-      </c>
-      <c r="I18">
-        <v>1694419.25</v>
-      </c>
-      <c r="J18">
-        <v>362969.34</v>
-      </c>
-      <c r="K18">
-        <v>712195.69</v>
-      </c>
-      <c r="L18">
-        <v>378538.25</v>
-      </c>
-      <c r="M18">
-        <v>3.29</v>
-      </c>
-      <c r="N18">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="O18">
-        <v>9.25</v>
-      </c>
-      <c r="P18">
-        <v>1.72</v>
-      </c>
-      <c r="Q18">
-        <v>20030428</v>
-      </c>
-      <c r="R18">
-        <v>505901.19</v>
-      </c>
-      <c r="S18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T18">
-        <v>8.06</v>
-      </c>
       <c r="U18">
-        <v>14.11</v>
+        <v>8.6</v>
       </c>
       <c r="V18">
-        <v>39.36</v>
+        <v>12.42</v>
       </c>
       <c r="W18">
-        <v>23.31</v>
+        <v>4.41</v>
       </c>
       <c r="X18">
-        <v>33752</v>
+        <v>103501</v>
       </c>
       <c r="Y18" t="s">
         <v>178</v>
@@ -2360,76 +2365,76 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>1053</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
+        <v>168</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>85.22</v>
+        <v>13.78</v>
       </c>
       <c r="H19">
-        <v>145.25</v>
+        <v>13.78</v>
       </c>
       <c r="I19">
-        <v>22916228</v>
+        <v>5170423</v>
       </c>
       <c r="J19">
-        <v>2075384.75</v>
+        <v>3601232.75</v>
       </c>
       <c r="K19">
-        <v>15216030</v>
+        <v>1132721.6299999999</v>
       </c>
       <c r="L19">
-        <v>1650953.13</v>
+        <v>462036.56</v>
       </c>
       <c r="M19">
-        <v>1.1399999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="N19">
-        <v>0.59</v>
+        <v>-0.317</v>
       </c>
       <c r="O19">
-        <v>5.13</v>
+        <v>12.42</v>
       </c>
       <c r="P19">
-        <v>1.62</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q19">
-        <v>20060818</v>
+        <v>19980520</v>
       </c>
       <c r="R19">
-        <v>3452767.5</v>
+        <v>1049208.25</v>
       </c>
       <c r="S19">
-        <v>2.38</v>
+        <v>7.61</v>
       </c>
       <c r="T19">
-        <v>3.72</v>
+        <v>-20.52</v>
       </c>
       <c r="U19">
-        <v>15.07</v>
+        <v>-355.48</v>
       </c>
       <c r="V19">
-        <v>24.78</v>
+        <v>9.65</v>
       </c>
       <c r="W19">
-        <v>8.4600000000000009</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="X19">
-        <v>204815</v>
+        <v>135039</v>
       </c>
       <c r="Y19" t="s">
         <v>178</v>
@@ -2437,76 +2442,76 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>1077</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
+        <v>1959</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F20">
-        <v>29.59</v>
+        <v>97.55</v>
       </c>
       <c r="G20">
-        <v>11.66</v>
+        <v>14.16</v>
       </c>
       <c r="H20">
-        <v>16.59</v>
+        <v>14.16</v>
       </c>
       <c r="I20">
-        <v>1312080.25</v>
+        <v>2304751.5</v>
       </c>
       <c r="J20">
-        <v>227616.27</v>
+        <v>1039831.19</v>
       </c>
       <c r="K20">
-        <v>88295.25</v>
+        <v>738083.13</v>
       </c>
       <c r="L20">
-        <v>28052.33</v>
+        <v>440104.19</v>
       </c>
       <c r="M20">
-        <v>0.17</v>
+        <v>3.11</v>
       </c>
       <c r="N20">
-        <v>0.56299999999999994</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="O20">
-        <v>5.23</v>
+        <v>3.95</v>
       </c>
       <c r="P20">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="Q20">
-        <v>20030107</v>
+        <v>19980602</v>
       </c>
       <c r="R20">
-        <v>578746.43999999994</v>
+        <v>-58504.23</v>
       </c>
       <c r="S20">
-        <v>3.49</v>
+        <v>-0.41</v>
       </c>
       <c r="T20">
-        <v>2.97</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="U20">
-        <v>-0.49</v>
+        <v>683.79</v>
       </c>
       <c r="V20">
-        <v>57.49</v>
+        <v>3.4</v>
       </c>
       <c r="W20">
-        <v>37.340000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="X20">
-        <v>21770</v>
+        <v>137048</v>
       </c>
       <c r="Y20" t="s">
         <v>178</v>
@@ -2514,76 +2519,76 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
+        <v>1841</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F21">
-        <v>15.4</v>
+        <v>30.26</v>
       </c>
       <c r="G21">
-        <v>61.22</v>
+        <v>4.3</v>
       </c>
       <c r="H21">
-        <v>82.06</v>
+        <v>4.3</v>
       </c>
       <c r="I21">
-        <v>13574926</v>
+        <v>585695.13</v>
       </c>
       <c r="J21">
-        <v>9831231</v>
+        <v>331467.34000000003</v>
       </c>
       <c r="K21">
-        <v>1458383.25</v>
+        <v>147565.51999999999</v>
       </c>
       <c r="L21">
-        <v>553591.88</v>
+        <v>91407.75</v>
       </c>
       <c r="M21">
-        <v>0.67</v>
+        <v>2.13</v>
       </c>
       <c r="N21">
-        <v>0.35499999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="O21">
-        <v>4.84</v>
+        <v>7.39</v>
       </c>
       <c r="P21">
-        <v>1.51</v>
+        <v>2.73</v>
       </c>
       <c r="Q21">
-        <v>19970910</v>
+        <v>19990107</v>
       </c>
       <c r="R21">
-        <v>2412827.5</v>
+        <v>158595.38</v>
       </c>
       <c r="S21">
-        <v>2.94</v>
+        <v>3.69</v>
       </c>
       <c r="T21">
-        <v>9.25</v>
+        <v>-11.81</v>
       </c>
       <c r="U21">
-        <v>17.09</v>
+        <v>-6.63</v>
       </c>
       <c r="V21">
-        <v>46.53</v>
+        <v>29.13</v>
       </c>
       <c r="W21">
-        <v>15.31</v>
+        <v>7.81</v>
       </c>
       <c r="X21">
-        <v>113320</v>
+        <v>20856</v>
       </c>
       <c r="Y21" t="s">
         <v>178</v>
@@ -2591,76 +2596,76 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>1253</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22">
-        <v>172.18</v>
+        <v>19.28</v>
       </c>
       <c r="G22">
-        <v>109.6</v>
+        <v>220.77</v>
       </c>
       <c r="H22">
-        <v>149.04</v>
+        <v>221.03</v>
       </c>
       <c r="I22">
-        <v>19007694</v>
+        <v>26687294</v>
       </c>
       <c r="J22">
-        <v>6642623</v>
+        <v>10141921</v>
       </c>
       <c r="K22">
-        <v>7435207</v>
+        <v>11078174</v>
       </c>
       <c r="L22">
-        <v>1865839.63</v>
+        <v>3377792.75</v>
       </c>
       <c r="M22">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="N22">
-        <v>0.02</v>
+        <v>0.253</v>
       </c>
       <c r="O22">
-        <v>2.56</v>
+        <v>7.16</v>
       </c>
       <c r="P22">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="Q22">
-        <v>20070430</v>
+        <v>20001212</v>
       </c>
       <c r="R22">
-        <v>-448859</v>
+        <v>4175795.25</v>
       </c>
       <c r="S22">
-        <v>-0.3</v>
+        <v>1.89</v>
       </c>
       <c r="T22">
-        <v>16.68</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U22">
-        <v>170.82</v>
+        <v>148.33000000000001</v>
       </c>
       <c r="V22">
-        <v>7.53</v>
+        <v>12.23</v>
       </c>
       <c r="W22">
-        <v>0.28000000000000003</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="X22">
-        <v>478870</v>
+        <v>300952</v>
       </c>
       <c r="Y22" t="s">
         <v>178</v>
@@ -2668,76 +2673,76 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>1154</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+        <v>2365</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F23">
-        <v>16.95</v>
+        <v>27.28</v>
       </c>
       <c r="G23">
-        <v>164.91</v>
+        <v>17.78</v>
       </c>
       <c r="H23">
-        <v>198.9</v>
+        <v>17.78</v>
       </c>
       <c r="I23">
-        <v>57166400</v>
+        <v>774225.06</v>
       </c>
       <c r="J23">
-        <v>13346300</v>
+        <v>322089</v>
       </c>
       <c r="K23">
-        <v>31648900</v>
+        <v>362568.16</v>
       </c>
       <c r="L23">
-        <v>7472900</v>
+        <v>242022.13</v>
       </c>
       <c r="M23">
-        <v>3.76</v>
+        <v>1.36</v>
       </c>
       <c r="N23">
-        <v>1.1419999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="O23">
-        <v>15.7</v>
+        <v>3.29</v>
       </c>
       <c r="P23">
-        <v>1.23</v>
+        <v>3.43</v>
       </c>
       <c r="Q23">
-        <v>20071009</v>
+        <v>20020329</v>
       </c>
       <c r="R23">
-        <v>19678600</v>
+        <v>35046.449999999997</v>
       </c>
       <c r="S23">
-        <v>9.89</v>
+        <v>0.2</v>
       </c>
       <c r="T23">
-        <v>3.42</v>
+        <v>-15.3</v>
       </c>
       <c r="U23">
-        <v>40.68</v>
+        <v>11.59</v>
       </c>
       <c r="V23">
-        <v>39.51</v>
+        <v>79.23</v>
       </c>
       <c r="W23">
-        <v>12.4</v>
+        <v>23.75</v>
       </c>
       <c r="X23">
-        <v>201755</v>
+        <v>105453</v>
       </c>
       <c r="Y23" t="s">
         <v>178</v>
@@ -2745,76 +2750,76 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>1222</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
+        <v>2014</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F24">
-        <v>417.57</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>7.85</v>
+        <v>4.3</v>
       </c>
       <c r="H24">
-        <v>7.85</v>
+        <v>4.3</v>
       </c>
       <c r="I24">
-        <v>382808.47</v>
+        <v>689530.19</v>
       </c>
       <c r="J24">
-        <v>183435.59</v>
+        <v>395478.5</v>
       </c>
       <c r="K24">
-        <v>95432.06</v>
+        <v>262169.21999999997</v>
       </c>
       <c r="L24">
-        <v>37030.44</v>
+        <v>237071.52</v>
       </c>
       <c r="M24">
-        <v>0.47</v>
+        <v>5.51</v>
       </c>
       <c r="N24">
-        <v>1.6E-2</v>
+        <v>-0.27</v>
       </c>
       <c r="O24">
-        <v>2.39</v>
+        <v>7.6</v>
       </c>
       <c r="P24">
-        <v>3.62</v>
+        <v>3.08</v>
       </c>
       <c r="Q24">
-        <v>20030609</v>
+        <v>20020412</v>
       </c>
       <c r="R24">
-        <v>58338.63</v>
+        <v>29348.55</v>
       </c>
       <c r="S24">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="T24">
-        <v>-12.52</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="U24">
-        <v>-91.13</v>
+        <v>-29.11</v>
       </c>
       <c r="V24">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="W24">
-        <v>1.29</v>
+        <v>-7.52</v>
       </c>
       <c r="X24">
-        <v>52016</v>
+        <v>33767</v>
       </c>
       <c r="Y24" t="s">
         <v>178</v>
@@ -2822,76 +2827,76 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>1253</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
+        <v>834</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F25">
-        <v>19.28</v>
+        <v>91.82</v>
       </c>
       <c r="G25">
-        <v>220.77</v>
+        <v>4.07</v>
       </c>
       <c r="H25">
-        <v>221.03</v>
+        <v>5.47</v>
       </c>
       <c r="I25">
-        <v>26687294</v>
+        <v>767241.38</v>
       </c>
       <c r="J25">
-        <v>10141921</v>
+        <v>591688.18999999994</v>
       </c>
       <c r="K25">
-        <v>11078174</v>
+        <v>56098.05</v>
       </c>
       <c r="L25">
-        <v>3377792.75</v>
+        <v>170119.16</v>
       </c>
       <c r="M25">
-        <v>1.53</v>
+        <v>3.11</v>
       </c>
       <c r="N25">
-        <v>0.253</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="O25">
-        <v>7.16</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P25">
-        <v>0.91</v>
+        <v>2.52</v>
       </c>
       <c r="Q25">
-        <v>20001212</v>
+        <v>20020722</v>
       </c>
       <c r="R25">
-        <v>4175795.25</v>
+        <v>25963.25</v>
       </c>
       <c r="S25">
-        <v>1.89</v>
+        <v>0.47</v>
       </c>
       <c r="T25">
-        <v>9.1999999999999993</v>
+        <v>1.63</v>
       </c>
       <c r="U25">
-        <v>148.33000000000001</v>
+        <v>-18.190000000000001</v>
       </c>
       <c r="V25">
-        <v>12.23</v>
+        <v>17.54</v>
       </c>
       <c r="W25">
-        <v>4.1900000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="X25">
-        <v>300952</v>
+        <v>75743</v>
       </c>
       <c r="Y25" t="s">
         <v>178</v>
@@ -2899,76 +2904,76 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>1356</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
+        <v>342</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F26">
-        <v>18.04</v>
+        <v>1027.68</v>
       </c>
       <c r="G26">
-        <v>20.03</v>
+        <v>211.97</v>
       </c>
       <c r="H26">
-        <v>25.09</v>
+        <v>211.97</v>
       </c>
       <c r="I26">
-        <v>2986584.5</v>
+        <v>61590732</v>
       </c>
       <c r="J26">
-        <v>1496795.88</v>
+        <v>8223389</v>
       </c>
       <c r="K26">
-        <v>926746.5</v>
+        <v>37109980</v>
       </c>
       <c r="L26">
-        <v>622875.31000000006</v>
+        <v>2781153.25</v>
       </c>
       <c r="M26">
-        <v>2.48</v>
+        <v>1.31</v>
       </c>
       <c r="N26">
-        <v>1.2529999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="O26">
-        <v>7.19</v>
+        <v>3.66</v>
       </c>
       <c r="P26">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="Q26">
-        <v>19930610</v>
+        <v>20021009</v>
       </c>
       <c r="R26">
-        <v>757088.94</v>
+        <v>2943286</v>
       </c>
       <c r="S26">
-        <v>3.02</v>
+        <v>1.39</v>
       </c>
       <c r="T26">
-        <v>22.45</v>
+        <v>-1.03</v>
       </c>
       <c r="U26">
-        <v>20.68</v>
+        <v>-95.56</v>
       </c>
       <c r="V26">
-        <v>43.07</v>
+        <v>22.83</v>
       </c>
       <c r="W26">
-        <v>18.920000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="X26">
-        <v>60181</v>
+        <v>633697</v>
       </c>
       <c r="Y26" t="s">
         <v>178</v>
@@ -2976,76 +2981,76 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>1376</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
+        <v>2223</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F27">
-        <v>9.6300000000000008</v>
+        <v>25.43</v>
       </c>
       <c r="G27">
-        <v>110.26</v>
+        <v>2.25</v>
       </c>
       <c r="H27">
-        <v>116.83</v>
+        <v>2.25</v>
       </c>
       <c r="I27">
-        <v>54494580</v>
+        <v>229126.55</v>
       </c>
       <c r="J27">
-        <v>29309072</v>
+        <v>167062.67000000001</v>
       </c>
       <c r="K27">
-        <v>4209782.5</v>
+        <v>33488.949999999997</v>
       </c>
       <c r="L27">
-        <v>4098541.5</v>
+        <v>26196.86</v>
       </c>
       <c r="M27">
-        <v>3.51</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N27">
-        <v>1.976</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="O27">
-        <v>16.7</v>
+        <v>8.81</v>
       </c>
       <c r="P27">
-        <v>1.52</v>
+        <v>4.68</v>
       </c>
       <c r="Q27">
-        <v>19971125</v>
+        <v>20021210</v>
       </c>
       <c r="R27">
-        <v>9434767</v>
+        <v>133810.16</v>
       </c>
       <c r="S27">
-        <v>8.08</v>
+        <v>5.95</v>
       </c>
       <c r="T27">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="U27">
-        <v>8.6</v>
+        <v>15.14</v>
       </c>
       <c r="V27">
-        <v>12.42</v>
+        <v>42.02</v>
       </c>
       <c r="W27">
-        <v>4.41</v>
+        <v>25.42</v>
       </c>
       <c r="X27">
-        <v>103501</v>
+        <v>15996</v>
       </c>
       <c r="Y27" t="s">
         <v>178</v>
@@ -3053,76 +3058,76 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>1388</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
+        <v>2282</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
       </c>
       <c r="F28">
-        <v>112.81</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="G28">
-        <v>22.11</v>
+        <v>98.15</v>
       </c>
       <c r="H28">
-        <v>22.13</v>
+        <v>121.17</v>
       </c>
       <c r="I28">
-        <v>1639804.5</v>
+        <v>59743884</v>
       </c>
       <c r="J28">
-        <v>544390.81000000006</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>482405.81</v>
+        <v>365947.03</v>
       </c>
       <c r="L28">
-        <v>147347.17000000001</v>
+        <v>5445852.5</v>
       </c>
       <c r="M28">
-        <v>0.67</v>
+        <v>4.49</v>
       </c>
       <c r="N28">
-        <v>7.400000000000001E-2</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="O28">
-        <v>3.44</v>
+        <v>11.78</v>
       </c>
       <c r="P28">
-        <v>3.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q28">
-        <v>19970123</v>
+        <v>20030106</v>
       </c>
       <c r="R28">
-        <v>338872.97</v>
+        <v>4719229</v>
       </c>
       <c r="S28">
-        <v>1.53</v>
+        <v>3.89</v>
       </c>
       <c r="T28">
-        <v>-3.5</v>
+        <v>-32.159999999999997</v>
       </c>
       <c r="U28">
-        <v>62.1</v>
+        <v>-47.65</v>
       </c>
       <c r="V28">
-        <v>9.7200000000000006</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1.48</v>
+        <v>27.28</v>
       </c>
       <c r="X28">
-        <v>161460</v>
+        <v>563612</v>
       </c>
       <c r="Y28" t="s">
         <v>178</v>
@@ -3130,76 +3135,76 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>1401</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
+        <v>1077</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F29">
-        <v>88.88</v>
+        <v>29.59</v>
       </c>
       <c r="G29">
-        <v>12.62</v>
+        <v>11.66</v>
       </c>
       <c r="H29">
-        <v>29.79</v>
+        <v>16.59</v>
       </c>
       <c r="I29">
-        <v>12461475</v>
+        <v>1312080.25</v>
       </c>
       <c r="J29">
-        <v>5335203</v>
+        <v>227616.27</v>
       </c>
       <c r="K29">
-        <v>2203726</v>
+        <v>88295.25</v>
       </c>
       <c r="L29">
-        <v>312658.5</v>
+        <v>28052.33</v>
       </c>
       <c r="M29">
-        <v>1.05</v>
+        <v>0.17</v>
       </c>
       <c r="N29">
-        <v>0.14000000000000001</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="O29">
-        <v>9.83</v>
+        <v>5.23</v>
       </c>
       <c r="P29">
-        <v>1.64</v>
+        <v>3.18</v>
       </c>
       <c r="Q29">
-        <v>19940408</v>
+        <v>20030107</v>
       </c>
       <c r="R29">
-        <v>1749505.25</v>
+        <v>578746.43999999994</v>
       </c>
       <c r="S29">
-        <v>5.87</v>
+        <v>3.49</v>
       </c>
       <c r="T29">
-        <v>-12.91</v>
+        <v>2.97</v>
       </c>
       <c r="U29">
-        <v>-73.37</v>
+        <v>-0.49</v>
       </c>
       <c r="V29">
-        <v>18.84</v>
+        <v>57.49</v>
       </c>
       <c r="W29">
-        <v>1.06</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="X29">
-        <v>77211</v>
+        <v>21770</v>
       </c>
       <c r="Y29" t="s">
         <v>178</v>
@@ -3207,76 +3212,76 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>1469</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
+        <v>879</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F30">
-        <v>20.77</v>
+        <v>13.01</v>
       </c>
       <c r="G30">
-        <v>18.670000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="H30">
-        <v>18.670000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="I30">
-        <v>3042811.5</v>
+        <v>1694419.25</v>
       </c>
       <c r="J30">
-        <v>2565958</v>
+        <v>362969.34</v>
       </c>
       <c r="K30">
-        <v>9327.3700000000008</v>
+        <v>712195.69</v>
       </c>
       <c r="L30">
-        <v>6035.75</v>
+        <v>378538.25</v>
       </c>
       <c r="M30">
-        <v>0.03</v>
+        <v>3.29</v>
       </c>
       <c r="N30">
-        <v>0.35099999999999998</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="O30">
-        <v>1.75</v>
+        <v>9.25</v>
       </c>
       <c r="P30">
-        <v>4.18</v>
+        <v>1.72</v>
       </c>
       <c r="Q30">
-        <v>19930924</v>
+        <v>20030428</v>
       </c>
       <c r="R30">
-        <v>83407.86</v>
+        <v>505901.19</v>
       </c>
       <c r="S30">
-        <v>0.45</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T30">
-        <v>205.01</v>
+        <v>8.06</v>
       </c>
       <c r="U30">
-        <v>126.35</v>
+        <v>14.11</v>
       </c>
       <c r="V30">
-        <v>29.16</v>
+        <v>39.36</v>
       </c>
       <c r="W30">
-        <v>4.62</v>
+        <v>23.31</v>
       </c>
       <c r="X30">
-        <v>99388</v>
+        <v>33752</v>
       </c>
       <c r="Y30" t="s">
         <v>178</v>
@@ -3284,76 +3289,76 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>1481</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
+        <v>1222</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F31">
-        <v>10.81</v>
+        <v>417.57</v>
       </c>
       <c r="G31">
-        <v>97.09</v>
+        <v>7.85</v>
       </c>
       <c r="H31">
-        <v>110.39</v>
+        <v>7.85</v>
       </c>
       <c r="I31">
-        <v>83067424</v>
+        <v>382808.47</v>
       </c>
       <c r="J31">
-        <v>72129544</v>
+        <v>183435.59</v>
       </c>
       <c r="K31">
-        <v>681079.31</v>
+        <v>95432.06</v>
       </c>
       <c r="L31">
-        <v>826826.75</v>
+        <v>37030.44</v>
       </c>
       <c r="M31">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="N31">
-        <v>1.9039999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O31">
-        <v>10.28</v>
+        <v>2.39</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>3.62</v>
       </c>
       <c r="Q31">
-        <v>19910129</v>
+        <v>20030609</v>
       </c>
       <c r="R31">
-        <v>6120027</v>
+        <v>58338.63</v>
       </c>
       <c r="S31">
-        <v>5.54</v>
+        <v>0.74</v>
       </c>
       <c r="T31">
-        <v>22.98</v>
+        <v>-12.52</v>
       </c>
       <c r="U31">
-        <v>16.02</v>
+        <v>-91.13</v>
       </c>
       <c r="V31">
-        <v>29.41</v>
+        <v>11.99</v>
       </c>
       <c r="W31">
-        <v>8.74</v>
+        <v>1.29</v>
       </c>
       <c r="X31">
-        <v>339309</v>
+        <v>52016</v>
       </c>
       <c r="Y31" t="s">
         <v>178</v>
@@ -3361,76 +3366,76 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>1668</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
+        <v>501</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32">
-        <v>14.48</v>
+        <v>236.87</v>
       </c>
       <c r="G32">
-        <v>16.649999999999999</v>
+        <v>75.94</v>
       </c>
       <c r="H32">
-        <v>16.649999999999999</v>
+        <v>76.58</v>
       </c>
       <c r="I32">
-        <v>5748587</v>
+        <v>6003771.5</v>
       </c>
       <c r="J32">
-        <v>5184122.5</v>
+        <v>3570230.5</v>
       </c>
       <c r="K32">
-        <v>140443.34</v>
+        <v>1496619.38</v>
       </c>
       <c r="L32">
-        <v>179006.88</v>
+        <v>55998.6</v>
       </c>
       <c r="M32">
-        <v>1.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N32">
-        <v>0.47099999999999997</v>
+        <v>2.3E-2</v>
       </c>
       <c r="O32">
-        <v>5.28</v>
+        <v>3.07</v>
       </c>
       <c r="P32">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="Q32">
-        <v>19961003</v>
+        <v>20030703</v>
       </c>
       <c r="R32">
-        <v>454763.5</v>
+        <v>1357585.25</v>
       </c>
       <c r="S32">
-        <v>2.73</v>
+        <v>1.77</v>
       </c>
       <c r="T32">
-        <v>52.93</v>
+        <v>-11.04</v>
       </c>
       <c r="U32">
-        <v>75.94</v>
+        <v>328.48</v>
       </c>
       <c r="V32">
-        <v>5.68</v>
+        <v>26.5</v>
       </c>
       <c r="W32">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="X32">
-        <v>124475</v>
+        <v>451598</v>
       </c>
       <c r="Y32" t="s">
         <v>178</v>
@@ -3438,76 +3443,76 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>1721</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
+        <v>193</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
         <v>164</v>
       </c>
       <c r="F33">
-        <v>626.61</v>
+        <v>25.47</v>
       </c>
       <c r="G33">
-        <v>1619.22</v>
+        <v>18.47</v>
       </c>
       <c r="H33">
-        <v>1830.21</v>
+        <v>18.63</v>
       </c>
       <c r="I33">
-        <v>240598816</v>
+        <v>1775911.25</v>
       </c>
       <c r="J33">
-        <v>41510200</v>
+        <v>1230210.5</v>
       </c>
       <c r="K33">
-        <v>65537100</v>
+        <v>100489.8</v>
       </c>
       <c r="L33">
-        <v>12851600</v>
+        <v>21611.65</v>
       </c>
       <c r="M33">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="N33">
-        <v>9.0000000000000011E-3</v>
+        <v>0.83</v>
       </c>
       <c r="O33">
-        <v>6.46</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="P33">
-        <v>1.22</v>
+        <v>4.22</v>
       </c>
       <c r="Q33">
-        <v>20071105</v>
+        <v>20030711</v>
       </c>
       <c r="R33">
-        <v>69999600</v>
+        <v>572147.38</v>
       </c>
       <c r="S33">
-        <v>3.82</v>
+        <v>3.07</v>
       </c>
       <c r="T33">
-        <v>-11.85</v>
+        <v>14.43</v>
       </c>
       <c r="U33">
-        <v>-94.37</v>
+        <v>-1.21</v>
       </c>
       <c r="V33">
-        <v>22.65</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="W33">
-        <v>0.15</v>
+        <v>6</v>
       </c>
       <c r="X33">
-        <v>591681</v>
+        <v>84333</v>
       </c>
       <c r="Y33" t="s">
         <v>178</v>
@@ -3515,76 +3520,76 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
+        <v>840</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>164</v>
       </c>
       <c r="F34">
-        <v>11.24</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="G34">
-        <v>67.86</v>
+        <v>34.51</v>
       </c>
       <c r="H34">
-        <v>67.86</v>
+        <v>34.51</v>
       </c>
       <c r="I34">
-        <v>19883628</v>
+        <v>3970576.75</v>
       </c>
       <c r="J34">
-        <v>1336194.1299999999</v>
+        <v>1609219.75</v>
       </c>
       <c r="K34">
-        <v>12589430</v>
+        <v>1201852.1299999999</v>
       </c>
       <c r="L34">
-        <v>647237</v>
+        <v>415878.34</v>
       </c>
       <c r="M34">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="N34">
-        <v>0.502</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="O34">
-        <v>4.1399999999999997</v>
+        <v>3.88</v>
       </c>
       <c r="P34">
-        <v>1.82</v>
+        <v>3.02</v>
       </c>
       <c r="Q34">
-        <v>19960118</v>
+        <v>20030814</v>
       </c>
       <c r="R34">
-        <v>1402043.88</v>
+        <v>509521.06</v>
       </c>
       <c r="S34">
-        <v>2.0699999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="T34">
-        <v>-9.23</v>
+        <v>-33.82</v>
       </c>
       <c r="U34">
-        <v>-24.84</v>
+        <v>454.37</v>
       </c>
       <c r="V34">
-        <v>52.83</v>
+        <v>12.34</v>
       </c>
       <c r="W34">
-        <v>15.4</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>256080</v>
+        <v>259218</v>
       </c>
       <c r="Y34" t="s">
         <v>178</v>
@@ -3592,76 +3597,76 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>1785</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
+        <v>2247</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F35">
-        <v>356.21</v>
+        <v>379.37</v>
       </c>
       <c r="G35">
-        <v>13.47</v>
+        <v>12.08</v>
       </c>
       <c r="H35">
-        <v>13.48</v>
+        <v>12.08</v>
       </c>
       <c r="I35">
-        <v>4148004.5</v>
+        <v>368195.75</v>
       </c>
       <c r="J35">
-        <v>1067384</v>
+        <v>214696.55</v>
       </c>
       <c r="K35">
-        <v>2332499.75</v>
+        <v>69145.179999999993</v>
       </c>
       <c r="L35">
-        <v>492174.91</v>
+        <v>116013.51</v>
       </c>
       <c r="M35">
-        <v>3.65</v>
+        <v>0.96</v>
       </c>
       <c r="N35">
-        <v>3.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O35">
-        <v>7.41</v>
+        <v>2.57</v>
       </c>
       <c r="P35">
-        <v>1.89</v>
+        <v>3.29</v>
       </c>
       <c r="Q35">
-        <v>19960614</v>
+        <v>20040526</v>
       </c>
       <c r="R35">
-        <v>257862.52</v>
+        <v>55797.4</v>
       </c>
       <c r="S35">
-        <v>1.91</v>
+        <v>0.46</v>
       </c>
       <c r="T35">
-        <v>11.05</v>
+        <v>-52.18</v>
       </c>
       <c r="U35">
-        <v>103.08</v>
+        <v>-73.27</v>
       </c>
       <c r="V35">
-        <v>24.17</v>
+        <v>14.68</v>
       </c>
       <c r="W35">
-        <v>0.43</v>
+        <v>2.8</v>
       </c>
       <c r="X35">
-        <v>50718</v>
+        <v>162823</v>
       </c>
       <c r="Y35" t="s">
         <v>178</v>
@@ -3669,76 +3674,76 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>1841</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
+        <v>1866</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F36">
-        <v>30.26</v>
+        <v>25.57</v>
       </c>
       <c r="G36">
-        <v>4.3</v>
+        <v>25.6</v>
       </c>
       <c r="H36">
-        <v>4.3</v>
+        <v>27.17</v>
       </c>
       <c r="I36">
-        <v>585695.13</v>
+        <v>1738158.38</v>
       </c>
       <c r="J36">
-        <v>331467.34000000003</v>
+        <v>976829.63</v>
       </c>
       <c r="K36">
-        <v>147565.51999999999</v>
+        <v>379892.81</v>
       </c>
       <c r="L36">
-        <v>91407.75</v>
+        <v>281227.25</v>
       </c>
       <c r="M36">
-        <v>2.13</v>
+        <v>1.04</v>
       </c>
       <c r="N36">
-        <v>0.499</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="O36">
-        <v>7.39</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.73</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q36">
-        <v>19990107</v>
+        <v>20040623</v>
       </c>
       <c r="R36">
-        <v>158595.38</v>
+        <v>290596.31</v>
       </c>
       <c r="S36">
-        <v>3.69</v>
+        <v>1.07</v>
       </c>
       <c r="T36">
-        <v>-11.81</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="U36">
-        <v>-6.63</v>
+        <v>13.31</v>
       </c>
       <c r="V36">
-        <v>29.13</v>
+        <v>17.89</v>
       </c>
       <c r="W36">
-        <v>7.81</v>
+        <v>4.95</v>
       </c>
       <c r="X36">
-        <v>20856</v>
+        <v>98427</v>
       </c>
       <c r="Y36" t="s">
         <v>178</v>
@@ -3746,76 +3751,76 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>1866</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
+        <v>303</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F37">
-        <v>25.57</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>25.6</v>
+        <v>50.18</v>
       </c>
       <c r="H37">
-        <v>27.17</v>
+        <v>93.1</v>
       </c>
       <c r="I37">
-        <v>1738158.38</v>
+        <v>13365485</v>
       </c>
       <c r="J37">
-        <v>976829.63</v>
+        <v>7511211</v>
       </c>
       <c r="K37">
-        <v>379892.81</v>
+        <v>1253429.75</v>
       </c>
       <c r="L37">
-        <v>281227.25</v>
+        <v>3240356.25</v>
       </c>
       <c r="M37">
-        <v>1.04</v>
+        <v>3.48</v>
       </c>
       <c r="N37">
-        <v>0.22700000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="P37">
-        <v>2.2799999999999998</v>
+        <v>1.57</v>
       </c>
       <c r="Q37">
-        <v>20040623</v>
+        <v>20040721</v>
       </c>
       <c r="R37">
-        <v>290596.31</v>
+        <v>1586162.25</v>
       </c>
       <c r="S37">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="T37">
-        <v>8.5399999999999991</v>
+        <v>11</v>
       </c>
       <c r="U37">
-        <v>13.31</v>
+        <v>-672.42</v>
       </c>
       <c r="V37">
-        <v>17.89</v>
+        <v>14.46</v>
       </c>
       <c r="W37">
-        <v>4.95</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="X37">
-        <v>98427</v>
+        <v>478692</v>
       </c>
       <c r="Y37" t="s">
         <v>178</v>
@@ -3823,76 +3828,76 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>1884</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
+        <v>202</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F38">
-        <v>16.399999999999999</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="G38">
-        <v>148.66999999999999</v>
+        <v>5.79</v>
       </c>
       <c r="H38">
-        <v>148.66999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I38">
-        <v>11930768</v>
+        <v>646022.13</v>
       </c>
       <c r="J38">
-        <v>2016121.75</v>
+        <v>548989</v>
       </c>
       <c r="K38">
-        <v>6747523</v>
+        <v>55593.8</v>
       </c>
       <c r="L38">
-        <v>2473876</v>
+        <v>8142.47</v>
       </c>
       <c r="M38">
-        <v>1.66</v>
+        <v>0.11</v>
       </c>
       <c r="N38">
-        <v>0.34599999999999997</v>
+        <v>0.49</v>
       </c>
       <c r="O38">
-        <v>5.89</v>
+        <v>5.53</v>
       </c>
       <c r="P38">
-        <v>1.29</v>
+        <v>2.83</v>
       </c>
       <c r="Q38">
-        <v>20060801</v>
+        <v>20040805</v>
       </c>
       <c r="R38">
-        <v>3878423.5</v>
+        <v>305399.5</v>
       </c>
       <c r="S38">
-        <v>2.61</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="T38">
-        <v>-21.82</v>
+        <v>10.16</v>
       </c>
       <c r="U38">
-        <v>-54.01</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="V38">
-        <v>16.62</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="W38">
-        <v>16.29</v>
+        <v>7.98</v>
       </c>
       <c r="X38">
-        <v>183469</v>
+        <v>38905</v>
       </c>
       <c r="Y38" t="s">
         <v>178</v>
@@ -3900,76 +3905,76 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
+        <v>410</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F39">
-        <v>346.63</v>
+        <v>34.97</v>
       </c>
       <c r="G39">
-        <v>4.16</v>
+        <v>7.55</v>
       </c>
       <c r="H39">
-        <v>5.22</v>
+        <v>7.56</v>
       </c>
       <c r="I39">
-        <v>1300654</v>
+        <v>745572.94</v>
       </c>
       <c r="J39">
-        <v>914475.38</v>
+        <v>506380</v>
       </c>
       <c r="K39">
-        <v>145834.06</v>
+        <v>41964.55</v>
       </c>
       <c r="L39">
-        <v>212387.3</v>
+        <v>187980.25</v>
       </c>
       <c r="M39">
-        <v>4.07</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="N39">
-        <v>3.7999999999999999E-2</v>
+        <v>0.223</v>
       </c>
       <c r="O39">
-        <v>5.97</v>
+        <v>6.75</v>
       </c>
       <c r="P39">
-        <v>2.97</v>
+        <v>1.54</v>
       </c>
       <c r="Q39">
-        <v>19930928</v>
+        <v>20040806</v>
       </c>
       <c r="R39">
-        <v>46009.62</v>
+        <v>190461.06</v>
       </c>
       <c r="S39">
-        <v>0.88</v>
+        <v>2.52</v>
       </c>
       <c r="T39">
-        <v>119.8</v>
+        <v>1.29</v>
       </c>
       <c r="U39">
-        <v>142.83000000000001</v>
+        <v>-7.16</v>
       </c>
       <c r="V39">
-        <v>13.43</v>
+        <v>40.46</v>
       </c>
       <c r="W39">
-        <v>0.24</v>
+        <v>9.43</v>
       </c>
       <c r="X39">
-        <v>81460</v>
+        <v>45907</v>
       </c>
       <c r="Y39" t="s">
         <v>178</v>
@@ -3977,76 +3982,76 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
+        <v>2088</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F40">
-        <v>97.55</v>
+        <v>6.06</v>
       </c>
       <c r="G40">
-        <v>14.16</v>
+        <v>2107.66</v>
       </c>
       <c r="H40">
-        <v>14.16</v>
+        <v>2943.88</v>
       </c>
       <c r="I40">
-        <v>2304751.5</v>
+        <v>1785750272</v>
       </c>
       <c r="J40">
-        <v>1039831.19</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>738083.13</v>
+        <v>18072500</v>
       </c>
       <c r="L40">
-        <v>440104.19</v>
+        <v>14170800</v>
       </c>
       <c r="M40">
-        <v>3.11</v>
+        <v>0.48</v>
       </c>
       <c r="N40">
-        <v>0.14399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="O40">
-        <v>3.95</v>
+        <v>4.38</v>
       </c>
       <c r="P40">
-        <v>3.54</v>
+        <v>0.84</v>
       </c>
       <c r="Q40">
-        <v>19980602</v>
+        <v>20060705</v>
       </c>
       <c r="R40">
-        <v>-58504.23</v>
+        <v>55911200</v>
       </c>
       <c r="S40">
-        <v>-0.41</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>4.4800000000000004</v>
+        <v>3.45</v>
       </c>
       <c r="U40">
-        <v>683.79</v>
+        <v>2.48</v>
       </c>
       <c r="V40">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.34</v>
+        <v>36.53</v>
       </c>
       <c r="X40">
-        <v>137048</v>
+        <v>884907</v>
       </c>
       <c r="Y40" t="s">
         <v>178</v>
@@ -4054,76 +4059,76 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
+        <v>1884</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G41">
-        <v>4.3</v>
+        <v>148.66999999999999</v>
       </c>
       <c r="H41">
-        <v>4.3</v>
+        <v>148.66999999999999</v>
       </c>
       <c r="I41">
-        <v>689530.19</v>
+        <v>11930768</v>
       </c>
       <c r="J41">
-        <v>395478.5</v>
+        <v>2016121.75</v>
       </c>
       <c r="K41">
-        <v>262169.21999999997</v>
+        <v>6747523</v>
       </c>
       <c r="L41">
-        <v>237071.52</v>
+        <v>2473876</v>
       </c>
       <c r="M41">
-        <v>5.51</v>
+        <v>1.66</v>
       </c>
       <c r="N41">
-        <v>-0.27</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="O41">
-        <v>7.6</v>
+        <v>5.89</v>
       </c>
       <c r="P41">
-        <v>3.08</v>
+        <v>1.29</v>
       </c>
       <c r="Q41">
-        <v>20020412</v>
+        <v>20060801</v>
       </c>
       <c r="R41">
-        <v>29348.55</v>
+        <v>3878423.5</v>
       </c>
       <c r="S41">
-        <v>0.68</v>
+        <v>2.61</v>
       </c>
       <c r="T41">
-        <v>2.5499999999999998</v>
+        <v>-21.82</v>
       </c>
       <c r="U41">
-        <v>-29.11</v>
+        <v>-54.01</v>
       </c>
       <c r="V41">
-        <v>11.86</v>
+        <v>16.62</v>
       </c>
       <c r="W41">
-        <v>-7.52</v>
+        <v>16.29</v>
       </c>
       <c r="X41">
-        <v>33767</v>
+        <v>183469</v>
       </c>
       <c r="Y41" t="s">
         <v>178</v>
@@ -4131,76 +4136,76 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>2088</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
+        <v>1053</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
         <v>164</v>
       </c>
       <c r="F42">
-        <v>6.06</v>
+        <v>12.5</v>
       </c>
       <c r="G42">
-        <v>2107.66</v>
+        <v>85.22</v>
       </c>
       <c r="H42">
-        <v>2943.88</v>
+        <v>145.25</v>
       </c>
       <c r="I42">
-        <v>1785750272</v>
+        <v>22916228</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2075384.75</v>
       </c>
       <c r="K42">
-        <v>18072500</v>
+        <v>15216030</v>
       </c>
       <c r="L42">
-        <v>14170800</v>
+        <v>1650953.13</v>
       </c>
       <c r="M42">
-        <v>0.48</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N42">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="O42">
-        <v>4.38</v>
+        <v>5.13</v>
       </c>
       <c r="P42">
-        <v>0.84</v>
+        <v>1.62</v>
       </c>
       <c r="Q42">
-        <v>20060705</v>
+        <v>20060818</v>
       </c>
       <c r="R42">
-        <v>55911200</v>
+        <v>3452767.5</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="T42">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="U42">
-        <v>2.48</v>
+        <v>15.07</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>24.78</v>
       </c>
       <c r="W42">
-        <v>36.53</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="X42">
-        <v>884907</v>
+        <v>204815</v>
       </c>
       <c r="Y42" t="s">
         <v>178</v>
@@ -4208,76 +4213,76 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>2223</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
+        <v>471</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F43">
-        <v>25.43</v>
+        <v>19.7</v>
       </c>
       <c r="G43">
+        <v>227.55</v>
+      </c>
+      <c r="H43">
+        <v>231.74</v>
+      </c>
+      <c r="I43">
+        <v>11678478</v>
+      </c>
+      <c r="J43">
+        <v>2374656</v>
+      </c>
+      <c r="K43">
+        <v>3468801.5</v>
+      </c>
+      <c r="L43">
+        <v>858377.88</v>
+      </c>
+      <c r="M43">
+        <v>0.37</v>
+      </c>
+      <c r="N43">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="O43">
+        <v>2.62</v>
+      </c>
+      <c r="P43">
         <v>2.25</v>
       </c>
-      <c r="H43">
-        <v>2.25</v>
-      </c>
-      <c r="I43">
-        <v>229126.55</v>
-      </c>
-      <c r="J43">
-        <v>167062.67000000001</v>
-      </c>
-      <c r="K43">
-        <v>33488.949999999997</v>
-      </c>
-      <c r="L43">
-        <v>26196.86</v>
-      </c>
-      <c r="M43">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N43">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="O43">
-        <v>8.81</v>
-      </c>
-      <c r="P43">
-        <v>4.68</v>
-      </c>
       <c r="Q43">
-        <v>20021210</v>
+        <v>20061026</v>
       </c>
       <c r="R43">
-        <v>133810.16</v>
+        <v>2432034.5</v>
       </c>
       <c r="S43">
-        <v>5.95</v>
+        <v>1.05</v>
       </c>
       <c r="T43">
-        <v>3.1</v>
+        <v>6.26</v>
       </c>
       <c r="U43">
-        <v>15.14</v>
+        <v>5.74</v>
       </c>
       <c r="V43">
-        <v>42.02</v>
+        <v>30.08</v>
       </c>
       <c r="W43">
-        <v>25.42</v>
+        <v>22.13</v>
       </c>
       <c r="X43">
-        <v>15996</v>
+        <v>273125</v>
       </c>
       <c r="Y43" t="s">
         <v>178</v>
@@ -4285,76 +4290,76 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>2247</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F44">
-        <v>379.37</v>
+        <v>37.39</v>
       </c>
       <c r="G44">
-        <v>12.08</v>
+        <v>208.24</v>
       </c>
       <c r="H44">
-        <v>12.08</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="I44">
-        <v>368195.75</v>
+        <v>269695104</v>
       </c>
       <c r="J44">
-        <v>214696.55</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>69145.179999999993</v>
+        <v>1935600</v>
       </c>
       <c r="L44">
-        <v>116013.51</v>
+        <v>5500700</v>
       </c>
       <c r="M44">
-        <v>0.96</v>
+        <v>1.95</v>
       </c>
       <c r="N44">
-        <v>2.1999999999999999E-2</v>
+        <v>0.66</v>
       </c>
       <c r="O44">
-        <v>2.57</v>
+        <v>10.74</v>
       </c>
       <c r="P44">
-        <v>3.29</v>
+        <v>2.36</v>
       </c>
       <c r="Q44">
-        <v>20040526</v>
+        <v>20070109</v>
       </c>
       <c r="R44">
-        <v>55797.4</v>
+        <v>12255800</v>
       </c>
       <c r="S44">
-        <v>0.46</v>
+        <v>4.34</v>
       </c>
       <c r="T44">
-        <v>-52.18</v>
+        <v>7.51</v>
       </c>
       <c r="U44">
-        <v>-73.27</v>
+        <v>-44.88</v>
       </c>
       <c r="V44">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="X44">
-        <v>162823</v>
+        <v>157327</v>
       </c>
       <c r="Y44" t="s">
         <v>178</v>
@@ -4362,76 +4367,76 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>2282</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
+        <v>1129</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45">
-        <v>18.829999999999998</v>
+        <v>172.18</v>
       </c>
       <c r="G45">
-        <v>98.15</v>
+        <v>109.6</v>
       </c>
       <c r="H45">
-        <v>121.17</v>
+        <v>149.04</v>
       </c>
       <c r="I45">
-        <v>59743884</v>
+        <v>19007694</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>6642623</v>
       </c>
       <c r="K45">
-        <v>365947.03</v>
+        <v>7435207</v>
       </c>
       <c r="L45">
-        <v>5445852.5</v>
+        <v>1865839.63</v>
       </c>
       <c r="M45">
-        <v>4.49</v>
+        <v>1.25</v>
       </c>
       <c r="N45">
-        <v>0.85499999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="O45">
-        <v>11.78</v>
+        <v>2.56</v>
       </c>
       <c r="P45">
-        <v>1.37</v>
+        <v>1.82</v>
       </c>
       <c r="Q45">
-        <v>20030106</v>
+        <v>20070430</v>
       </c>
       <c r="R45">
-        <v>4719229</v>
+        <v>-448859</v>
       </c>
       <c r="S45">
-        <v>3.89</v>
+        <v>-0.3</v>
       </c>
       <c r="T45">
-        <v>-32.159999999999997</v>
+        <v>16.68</v>
       </c>
       <c r="U45">
-        <v>-47.65</v>
+        <v>170.82</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="W45">
-        <v>27.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X45">
-        <v>563612</v>
+        <v>478870</v>
       </c>
       <c r="Y45" t="s">
         <v>178</v>
@@ -4439,76 +4444,76 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>2296</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
+        <v>1154</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F46">
-        <v>28.17</v>
+        <v>16.95</v>
       </c>
       <c r="G46">
-        <v>10.41</v>
+        <v>164.91</v>
       </c>
       <c r="H46">
-        <v>10.41</v>
+        <v>198.9</v>
       </c>
       <c r="I46">
-        <v>2283942</v>
+        <v>57166400</v>
       </c>
       <c r="J46">
-        <v>2048007.75</v>
+        <v>13346300</v>
       </c>
       <c r="K46">
-        <v>158261.95000000001</v>
+        <v>31648900</v>
       </c>
       <c r="L46">
-        <v>124985.65</v>
+        <v>7472900</v>
       </c>
       <c r="M46">
-        <v>1.2</v>
+        <v>3.76</v>
       </c>
       <c r="N46">
-        <v>2.266</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="O46">
-        <v>14.57</v>
+        <v>15.7</v>
       </c>
       <c r="P46">
-        <v>5.84</v>
+        <v>1.23</v>
       </c>
       <c r="Q46">
-        <v>19931215</v>
+        <v>20071009</v>
       </c>
       <c r="R46">
-        <v>1210628.5</v>
+        <v>19678600</v>
       </c>
       <c r="S46">
-        <v>11.63</v>
+        <v>9.89</v>
       </c>
       <c r="T46">
-        <v>10.89</v>
+        <v>3.42</v>
       </c>
       <c r="U46">
-        <v>10.16</v>
+        <v>40.68</v>
       </c>
       <c r="V46">
-        <v>31.01</v>
+        <v>39.51</v>
       </c>
       <c r="W46">
-        <v>14.49</v>
+        <v>12.4</v>
       </c>
       <c r="X46">
-        <v>38673</v>
+        <v>201755</v>
       </c>
       <c r="Y46" t="s">
         <v>178</v>
@@ -4516,86 +4521,87 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>2365</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
+        <v>1721</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F47">
-        <v>27.28</v>
+        <v>626.61</v>
       </c>
       <c r="G47">
-        <v>17.78</v>
+        <v>1619.22</v>
       </c>
       <c r="H47">
-        <v>17.78</v>
+        <v>1830.21</v>
       </c>
       <c r="I47">
-        <v>774225.06</v>
+        <v>240598816</v>
       </c>
       <c r="J47">
-        <v>322089</v>
+        <v>41510200</v>
       </c>
       <c r="K47">
-        <v>362568.16</v>
+        <v>65537100</v>
       </c>
       <c r="L47">
-        <v>242022.13</v>
+        <v>12851600</v>
       </c>
       <c r="M47">
-        <v>1.36</v>
+        <v>0.7</v>
       </c>
       <c r="N47">
-        <v>0.41399999999999998</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="O47">
-        <v>3.29</v>
+        <v>6.46</v>
       </c>
       <c r="P47">
-        <v>3.43</v>
+        <v>1.22</v>
       </c>
       <c r="Q47">
-        <v>20020329</v>
+        <v>20071105</v>
       </c>
       <c r="R47">
-        <v>35046.449999999997</v>
+        <v>69999600</v>
       </c>
       <c r="S47">
-        <v>0.2</v>
+        <v>3.82</v>
       </c>
       <c r="T47">
-        <v>-15.3</v>
+        <v>-11.85</v>
       </c>
       <c r="U47">
-        <v>11.59</v>
+        <v>-94.37</v>
       </c>
       <c r="V47">
-        <v>79.23</v>
+        <v>22.65</v>
       </c>
       <c r="W47">
-        <v>23.75</v>
+        <v>0.15</v>
       </c>
       <c r="X47">
-        <v>105453</v>
+        <v>591681</v>
       </c>
       <c r="Y47" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y52">
-    <sortCondition ref="D1"/>
+  <sortState ref="A2:Y47">
+    <sortCondition ref="Q1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Chinese_Stock/lead.xlsx
+++ b/data/Chinese_Stock/lead.xlsx
@@ -66,496 +66,497 @@
     <t>pb</t>
   </si>
   <si>
+    <t>undp</t>
+  </si>
+  <si>
+    <t>perundp</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>gpr</t>
+  </si>
+  <si>
+    <t>npr</t>
+  </si>
+  <si>
+    <t>holders</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>600655</t>
+  </si>
+  <si>
+    <t>601628</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>600150</t>
+  </si>
+  <si>
+    <t>600271</t>
+  </si>
+  <si>
+    <t>002028</t>
+  </si>
+  <si>
+    <t>002024</t>
+  </si>
+  <si>
+    <t>600050</t>
+  </si>
+  <si>
+    <t>000563</t>
+  </si>
+  <si>
+    <t>002029</t>
+  </si>
+  <si>
+    <t>600018</t>
+  </si>
+  <si>
+    <t>600031</t>
+  </si>
+  <si>
+    <t>600118</t>
+  </si>
+  <si>
+    <t>600526</t>
+  </si>
+  <si>
+    <t>600489</t>
+  </si>
+  <si>
+    <t>600795</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>601111</t>
+  </si>
+  <si>
+    <t>600012</t>
+  </si>
+  <si>
+    <t>000069</t>
+  </si>
+  <si>
+    <t>601600</t>
+  </si>
+  <si>
+    <t>601088</t>
+  </si>
+  <si>
+    <t>600251</t>
+  </si>
+  <si>
+    <t>600019</t>
+  </si>
+  <si>
+    <t>600660</t>
+  </si>
+  <si>
+    <t>600104</t>
+  </si>
+  <si>
+    <t>000060</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>600675</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>600755</t>
+  </si>
+  <si>
+    <t>601857</t>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>000401</t>
+  </si>
+  <si>
+    <t>600195</t>
+  </si>
+  <si>
+    <t>600143</t>
+  </si>
+  <si>
+    <t>601006</t>
+  </si>
+  <si>
+    <t>600677</t>
+  </si>
+  <si>
+    <t>000878</t>
+  </si>
+  <si>
+    <t>600456</t>
+  </si>
+  <si>
+    <t>601988</t>
+  </si>
+  <si>
+    <t>600563</t>
+  </si>
+  <si>
+    <t>600495</t>
+  </si>
+  <si>
+    <t>600030</t>
+  </si>
+  <si>
+    <t>000538</t>
+  </si>
+  <si>
+    <t>600598</t>
+  </si>
+  <si>
+    <t>豫园商城</t>
+  </si>
+  <si>
+    <t>中国人寿</t>
+  </si>
+  <si>
+    <t>南 玻Ａ</t>
+  </si>
+  <si>
+    <t>中国船舶</t>
+  </si>
+  <si>
+    <t>航天信息</t>
+  </si>
+  <si>
+    <t>思源电气</t>
+  </si>
+  <si>
+    <t>苏宁云商</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>陕国投Ａ</t>
+  </si>
+  <si>
+    <t>七 匹 狼</t>
+  </si>
+  <si>
+    <t>上港集团</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>中国卫星</t>
+  </si>
+  <si>
+    <t>菲达环保</t>
+  </si>
+  <si>
+    <t>中金黄金</t>
+  </si>
+  <si>
+    <t>国电电力</t>
+  </si>
+  <si>
+    <t>白云机场</t>
+  </si>
+  <si>
+    <t>中国国航</t>
+  </si>
+  <si>
+    <t>皖通高速</t>
+  </si>
+  <si>
+    <t>华侨城Ａ</t>
+  </si>
+  <si>
+    <t>中国铝业</t>
+  </si>
+  <si>
+    <t>中国神华</t>
+  </si>
+  <si>
+    <t>冠农股份</t>
+  </si>
+  <si>
+    <t>宝钢股份</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>中金岭南</t>
+  </si>
+  <si>
+    <t>中集集团</t>
+  </si>
+  <si>
+    <t>中华企业</t>
+  </si>
+  <si>
+    <t>万 科Ａ</t>
+  </si>
+  <si>
+    <t>厦门国贸</t>
+  </si>
+  <si>
+    <t>中国石油</t>
+  </si>
+  <si>
+    <t>国投电力</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>中牧股份</t>
+  </si>
+  <si>
+    <t>金发科技</t>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+  </si>
+  <si>
+    <t>航天通信</t>
+  </si>
+  <si>
+    <t>云南铜业</t>
+  </si>
+  <si>
+    <t>宝钛股份</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>法拉电子</t>
+  </si>
+  <si>
+    <t>晋西车轴</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>云南白药</t>
+  </si>
+  <si>
+    <t>北大荒</t>
+  </si>
+  <si>
+    <t>百货</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>船舶</t>
+  </si>
+  <si>
+    <t>电脑设备</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>电器连锁</t>
+  </si>
+  <si>
+    <t>电信运营</t>
+  </si>
+  <si>
+    <t>多元金融</t>
+  </si>
+  <si>
+    <t>服饰</t>
+  </si>
+  <si>
+    <t>港口</t>
+  </si>
+  <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>环境保护</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>火力发电</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>空运</t>
+  </si>
+  <si>
+    <t>路桥</t>
+  </si>
+  <si>
+    <t>旅游景点</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
+    <t>煤炭开采</t>
+  </si>
+  <si>
+    <t>农业综合</t>
+  </si>
+  <si>
+    <t>普钢</t>
+  </si>
+  <si>
+    <t>汽车配件</t>
+  </si>
+  <si>
+    <t>汽车整车</t>
+  </si>
+  <si>
+    <t>铅锌</t>
+  </si>
+  <si>
+    <t>轻工机械</t>
+  </si>
+  <si>
+    <t>区域地产</t>
+  </si>
+  <si>
+    <t>全国地产</t>
+  </si>
+  <si>
+    <t>商贸代理</t>
+  </si>
+  <si>
+    <t>石油开采</t>
+  </si>
+  <si>
+    <t>水力发电</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>元器件</t>
+  </si>
+  <si>
+    <t>运输设备</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>中成药</t>
+  </si>
+  <si>
+    <t>种植业</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>龙头</t>
+  </si>
+  <si>
     <t>timeToMarket</t>
-  </si>
-  <si>
-    <t>undp</t>
-  </si>
-  <si>
-    <t>perundp</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>gpr</t>
-  </si>
-  <si>
-    <t>npr</t>
-  </si>
-  <si>
-    <t>holders</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>600655</t>
-  </si>
-  <si>
-    <t>601628</t>
-  </si>
-  <si>
-    <t>000012</t>
-  </si>
-  <si>
-    <t>600150</t>
-  </si>
-  <si>
-    <t>600271</t>
-  </si>
-  <si>
-    <t>002028</t>
-  </si>
-  <si>
-    <t>002024</t>
-  </si>
-  <si>
-    <t>600050</t>
-  </si>
-  <si>
-    <t>000563</t>
-  </si>
-  <si>
-    <t>002029</t>
-  </si>
-  <si>
-    <t>600018</t>
-  </si>
-  <si>
-    <t>600031</t>
-  </si>
-  <si>
-    <t>600118</t>
-  </si>
-  <si>
-    <t>600526</t>
-  </si>
-  <si>
-    <t>600489</t>
-  </si>
-  <si>
-    <t>600795</t>
-  </si>
-  <si>
-    <t>600004</t>
-  </si>
-  <si>
-    <t>601111</t>
-  </si>
-  <si>
-    <t>600012</t>
-  </si>
-  <si>
-    <t>000069</t>
-  </si>
-  <si>
-    <t>601600</t>
-  </si>
-  <si>
-    <t>601088</t>
-  </si>
-  <si>
-    <t>600251</t>
-  </si>
-  <si>
-    <t>600019</t>
-  </si>
-  <si>
-    <t>600660</t>
-  </si>
-  <si>
-    <t>600104</t>
-  </si>
-  <si>
-    <t>000060</t>
-  </si>
-  <si>
-    <t>000039</t>
-  </si>
-  <si>
-    <t>600675</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>600755</t>
-  </si>
-  <si>
-    <t>601857</t>
-  </si>
-  <si>
-    <t>600886</t>
-  </si>
-  <si>
-    <t>000401</t>
-  </si>
-  <si>
-    <t>600195</t>
-  </si>
-  <si>
-    <t>600143</t>
-  </si>
-  <si>
-    <t>601006</t>
-  </si>
-  <si>
-    <t>600677</t>
-  </si>
-  <si>
-    <t>000878</t>
-  </si>
-  <si>
-    <t>600456</t>
-  </si>
-  <si>
-    <t>601988</t>
-  </si>
-  <si>
-    <t>600563</t>
-  </si>
-  <si>
-    <t>600495</t>
-  </si>
-  <si>
-    <t>600030</t>
-  </si>
-  <si>
-    <t>000538</t>
-  </si>
-  <si>
-    <t>600598</t>
-  </si>
-  <si>
-    <t>豫园商城</t>
-  </si>
-  <si>
-    <t>中国人寿</t>
-  </si>
-  <si>
-    <t>南 玻Ａ</t>
-  </si>
-  <si>
-    <t>中国船舶</t>
-  </si>
-  <si>
-    <t>航天信息</t>
-  </si>
-  <si>
-    <t>思源电气</t>
-  </si>
-  <si>
-    <t>苏宁云商</t>
-  </si>
-  <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>陕国投Ａ</t>
-  </si>
-  <si>
-    <t>七 匹 狼</t>
-  </si>
-  <si>
-    <t>上港集团</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>中国卫星</t>
-  </si>
-  <si>
-    <t>菲达环保</t>
-  </si>
-  <si>
-    <t>中金黄金</t>
-  </si>
-  <si>
-    <t>国电电力</t>
-  </si>
-  <si>
-    <t>白云机场</t>
-  </si>
-  <si>
-    <t>中国国航</t>
-  </si>
-  <si>
-    <t>皖通高速</t>
-  </si>
-  <si>
-    <t>华侨城Ａ</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>中国神华</t>
-  </si>
-  <si>
-    <t>冠农股份</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <t>中金岭南</t>
-  </si>
-  <si>
-    <t>中集集团</t>
-  </si>
-  <si>
-    <t>中华企业</t>
-  </si>
-  <si>
-    <t>万 科Ａ</t>
-  </si>
-  <si>
-    <t>厦门国贸</t>
-  </si>
-  <si>
-    <t>中国石油</t>
-  </si>
-  <si>
-    <t>国投电力</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>中牧股份</t>
-  </si>
-  <si>
-    <t>金发科技</t>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-  </si>
-  <si>
-    <t>航天通信</t>
-  </si>
-  <si>
-    <t>云南铜业</t>
-  </si>
-  <si>
-    <t>宝钛股份</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>法拉电子</t>
-  </si>
-  <si>
-    <t>晋西车轴</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>云南白药</t>
-  </si>
-  <si>
-    <t>北大荒</t>
-  </si>
-  <si>
-    <t>百货</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>船舶</t>
-  </si>
-  <si>
-    <t>电脑设备</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>电器连锁</t>
-  </si>
-  <si>
-    <t>电信运营</t>
-  </si>
-  <si>
-    <t>多元金融</t>
-  </si>
-  <si>
-    <t>服饰</t>
-  </si>
-  <si>
-    <t>港口</t>
-  </si>
-  <si>
-    <t>工程机械</t>
-  </si>
-  <si>
-    <t>航空</t>
-  </si>
-  <si>
-    <t>环境保护</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>火力发电</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>空运</t>
-  </si>
-  <si>
-    <t>路桥</t>
-  </si>
-  <si>
-    <t>旅游景点</t>
-  </si>
-  <si>
-    <t>铝</t>
-  </si>
-  <si>
-    <t>煤炭开采</t>
-  </si>
-  <si>
-    <t>农业综合</t>
-  </si>
-  <si>
-    <t>普钢</t>
-  </si>
-  <si>
-    <t>汽车配件</t>
-  </si>
-  <si>
-    <t>汽车整车</t>
-  </si>
-  <si>
-    <t>铅锌</t>
-  </si>
-  <si>
-    <t>轻工机械</t>
-  </si>
-  <si>
-    <t>区域地产</t>
-  </si>
-  <si>
-    <t>全国地产</t>
-  </si>
-  <si>
-    <t>商贸代理</t>
-  </si>
-  <si>
-    <t>石油开采</t>
-  </si>
-  <si>
-    <t>水力发电</t>
-  </si>
-  <si>
-    <t>水泥</t>
-  </si>
-  <si>
-    <t>饲料</t>
-  </si>
-  <si>
-    <t>塑料</t>
-  </si>
-  <si>
-    <t>铁路</t>
-  </si>
-  <si>
-    <t>通信设备</t>
-  </si>
-  <si>
-    <t>铜</t>
-  </si>
-  <si>
-    <t>小金属</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>元器件</t>
-  </si>
-  <si>
-    <t>运输设备</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>中成药</t>
-  </si>
-  <si>
-    <t>种植业</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>江苏</t>
-  </si>
-  <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>福建</t>
-  </si>
-  <si>
-    <t>湖南</t>
-  </si>
-  <si>
-    <t>山西</t>
-  </si>
-  <si>
-    <t>安徽</t>
-  </si>
-  <si>
-    <t>辽宁</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>云南</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>龙头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -970,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,2500 +1028,2500 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1481</v>
+        <v>1721</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>163</v>
       </c>
       <c r="F2">
-        <v>10.81</v>
+        <v>626.61</v>
       </c>
       <c r="G2">
-        <v>97.09</v>
+        <v>1619.22</v>
       </c>
       <c r="H2">
-        <v>110.39</v>
+        <v>1830.21</v>
       </c>
       <c r="I2">
-        <v>83067424</v>
+        <v>240598816</v>
       </c>
       <c r="J2">
-        <v>72129544</v>
+        <v>41510200</v>
       </c>
       <c r="K2">
-        <v>681079.31</v>
+        <v>65537100</v>
       </c>
       <c r="L2">
-        <v>826826.75</v>
+        <v>12851600</v>
       </c>
       <c r="M2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N2">
-        <v>1.9039999999999999</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="O2">
-        <v>10.28</v>
+        <v>6.46</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="Q2">
-        <v>19910129</v>
+        <v>20071105</v>
       </c>
       <c r="R2">
-        <v>6120027</v>
+        <v>69999600</v>
       </c>
       <c r="S2">
-        <v>5.54</v>
+        <v>3.82</v>
       </c>
       <c r="T2">
-        <v>22.98</v>
+        <v>-11.85</v>
       </c>
       <c r="U2">
-        <v>16.02</v>
+        <v>-94.37</v>
       </c>
       <c r="V2">
-        <v>29.41</v>
+        <v>22.65</v>
       </c>
       <c r="W2">
-        <v>8.74</v>
+        <v>0.15</v>
       </c>
       <c r="X2">
-        <v>339309</v>
+        <v>591681</v>
       </c>
       <c r="Y2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>1154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>163</v>
       </c>
       <c r="F3">
-        <v>23.75</v>
+        <v>16.95</v>
       </c>
       <c r="G3">
-        <v>13.04</v>
+        <v>164.91</v>
       </c>
       <c r="H3">
-        <v>20.75</v>
+        <v>198.9</v>
       </c>
       <c r="I3">
-        <v>1692808.75</v>
+        <v>57166400</v>
       </c>
       <c r="J3">
-        <v>211997.3</v>
+        <v>13346300</v>
       </c>
       <c r="K3">
-        <v>1129666.75</v>
+        <v>31648900</v>
       </c>
       <c r="L3">
-        <v>126059.17</v>
+        <v>7472900</v>
       </c>
       <c r="M3">
-        <v>0.61</v>
+        <v>3.76</v>
       </c>
       <c r="N3">
-        <v>0.34399999999999997</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="O3">
-        <v>3.84</v>
+        <v>15.7</v>
       </c>
       <c r="P3">
-        <v>2.84</v>
+        <v>1.23</v>
       </c>
       <c r="Q3">
-        <v>19920228</v>
+        <v>20071009</v>
       </c>
       <c r="R3">
-        <v>372950.53</v>
+        <v>19678600</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>9.89</v>
       </c>
       <c r="T3">
-        <v>21.29</v>
+        <v>3.42</v>
       </c>
       <c r="U3">
-        <v>81.41</v>
+        <v>40.68</v>
       </c>
       <c r="V3">
-        <v>27.48</v>
+        <v>39.51</v>
       </c>
       <c r="W3">
-        <v>10.96</v>
+        <v>12.4</v>
       </c>
       <c r="X3">
-        <v>171075</v>
+        <v>201755</v>
       </c>
       <c r="Y3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>1129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4">
-        <v>34.28</v>
+        <v>172.18</v>
       </c>
       <c r="G4">
-        <v>14.37</v>
+        <v>109.6</v>
       </c>
       <c r="H4">
-        <v>14.37</v>
+        <v>149.04</v>
       </c>
       <c r="I4">
-        <v>2317898.5</v>
+        <v>19007694</v>
       </c>
       <c r="J4">
-        <v>700880.88</v>
+        <v>6642623</v>
       </c>
       <c r="K4">
-        <v>140467.79999999999</v>
+        <v>7435207</v>
       </c>
       <c r="L4">
-        <v>91915.5</v>
+        <v>1865839.63</v>
       </c>
       <c r="M4">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="N4">
-        <v>0.33300000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="O4">
-        <v>7.36</v>
+        <v>2.56</v>
       </c>
       <c r="P4">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="Q4">
-        <v>19920902</v>
+        <v>20070430</v>
       </c>
       <c r="R4">
-        <v>592560.06000000006</v>
+        <v>-448859</v>
       </c>
       <c r="S4">
-        <v>4.12</v>
+        <v>-0.3</v>
       </c>
       <c r="T4">
-        <v>-10.87</v>
+        <v>16.68</v>
       </c>
       <c r="U4">
-        <v>-43.6</v>
+        <v>170.82</v>
       </c>
       <c r="V4">
-        <v>15.76</v>
+        <v>7.53</v>
       </c>
       <c r="W4">
-        <v>3.06</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X4">
-        <v>112681</v>
+        <v>478870</v>
       </c>
       <c r="Y4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1356</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F5">
-        <v>18.04</v>
+        <v>37.39</v>
       </c>
       <c r="G5">
-        <v>20.03</v>
+        <v>208.24</v>
       </c>
       <c r="H5">
-        <v>25.09</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="I5">
-        <v>2986584.5</v>
+        <v>269695104</v>
       </c>
       <c r="J5">
-        <v>1496795.88</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>926746.5</v>
+        <v>1935600</v>
       </c>
       <c r="L5">
-        <v>622875.31000000006</v>
+        <v>5500700</v>
       </c>
       <c r="M5">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.2529999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="O5">
-        <v>7.19</v>
+        <v>10.74</v>
       </c>
       <c r="P5">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="Q5">
-        <v>19930610</v>
+        <v>20070109</v>
       </c>
       <c r="R5">
-        <v>757088.94</v>
+        <v>12255800</v>
       </c>
       <c r="S5">
-        <v>3.02</v>
+        <v>4.34</v>
       </c>
       <c r="T5">
-        <v>22.45</v>
+        <v>7.51</v>
       </c>
       <c r="U5">
-        <v>20.68</v>
+        <v>-44.88</v>
       </c>
       <c r="V5">
-        <v>43.07</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>18.920000000000002</v>
+        <v>3.48</v>
       </c>
       <c r="X5">
-        <v>60181</v>
+        <v>157327</v>
       </c>
       <c r="Y5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1469</v>
+        <v>471</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6">
-        <v>20.77</v>
+        <v>19.7</v>
       </c>
       <c r="G6">
-        <v>18.670000000000002</v>
+        <v>227.55</v>
       </c>
       <c r="H6">
-        <v>18.670000000000002</v>
+        <v>231.74</v>
       </c>
       <c r="I6">
-        <v>3042811.5</v>
+        <v>11678478</v>
       </c>
       <c r="J6">
-        <v>2565958</v>
+        <v>2374656</v>
       </c>
       <c r="K6">
-        <v>9327.3700000000008</v>
+        <v>3468801.5</v>
       </c>
       <c r="L6">
-        <v>6035.75</v>
+        <v>858377.88</v>
       </c>
       <c r="M6">
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
       <c r="N6">
-        <v>0.35099999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="O6">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="P6">
-        <v>4.18</v>
+        <v>2.25</v>
       </c>
       <c r="Q6">
-        <v>19930924</v>
+        <v>20061026</v>
       </c>
       <c r="R6">
-        <v>83407.86</v>
+        <v>2432034.5</v>
       </c>
       <c r="S6">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="T6">
-        <v>205.01</v>
+        <v>6.26</v>
       </c>
       <c r="U6">
-        <v>126.35</v>
+        <v>5.74</v>
       </c>
       <c r="V6">
-        <v>29.16</v>
+        <v>30.08</v>
       </c>
       <c r="W6">
-        <v>4.62</v>
+        <v>22.13</v>
       </c>
       <c r="X6">
-        <v>99388</v>
+        <v>273125</v>
       </c>
       <c r="Y6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1951</v>
+        <v>1053</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F7">
-        <v>346.63</v>
+        <v>12.5</v>
       </c>
       <c r="G7">
-        <v>4.16</v>
+        <v>85.22</v>
       </c>
       <c r="H7">
-        <v>5.22</v>
+        <v>145.25</v>
       </c>
       <c r="I7">
-        <v>1300654</v>
+        <v>22916228</v>
       </c>
       <c r="J7">
-        <v>914475.38</v>
+        <v>2075384.75</v>
       </c>
       <c r="K7">
-        <v>145834.06</v>
+        <v>15216030</v>
       </c>
       <c r="L7">
-        <v>212387.3</v>
+        <v>1650953.13</v>
       </c>
       <c r="M7">
-        <v>4.07</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N7">
-        <v>3.7999999999999999E-2</v>
+        <v>0.59</v>
       </c>
       <c r="O7">
-        <v>5.97</v>
+        <v>5.13</v>
       </c>
       <c r="P7">
-        <v>2.97</v>
+        <v>1.62</v>
       </c>
       <c r="Q7">
-        <v>19930928</v>
+        <v>20060818</v>
       </c>
       <c r="R7">
-        <v>46009.62</v>
+        <v>3452767.5</v>
       </c>
       <c r="S7">
-        <v>0.88</v>
+        <v>2.38</v>
       </c>
       <c r="T7">
-        <v>119.8</v>
+        <v>3.72</v>
       </c>
       <c r="U7">
-        <v>142.83000000000001</v>
+        <v>15.07</v>
       </c>
       <c r="V7">
-        <v>13.43</v>
+        <v>24.78</v>
       </c>
       <c r="W7">
-        <v>0.24</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="X7">
-        <v>81460</v>
+        <v>204815</v>
       </c>
       <c r="Y7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>2296</v>
+        <v>1884</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F8">
-        <v>28.17</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G8">
-        <v>10.41</v>
+        <v>148.66999999999999</v>
       </c>
       <c r="H8">
-        <v>10.41</v>
+        <v>148.66999999999999</v>
       </c>
       <c r="I8">
-        <v>2283942</v>
+        <v>11930768</v>
       </c>
       <c r="J8">
-        <v>2048007.75</v>
+        <v>2016121.75</v>
       </c>
       <c r="K8">
-        <v>158261.95000000001</v>
+        <v>6747523</v>
       </c>
       <c r="L8">
-        <v>124985.65</v>
+        <v>2473876</v>
       </c>
       <c r="M8">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="N8">
-        <v>2.266</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="O8">
-        <v>14.57</v>
+        <v>5.89</v>
       </c>
       <c r="P8">
-        <v>5.84</v>
+        <v>1.29</v>
       </c>
       <c r="Q8">
-        <v>19931215</v>
+        <v>20060801</v>
       </c>
       <c r="R8">
-        <v>1210628.5</v>
+        <v>3878423.5</v>
       </c>
       <c r="S8">
-        <v>11.63</v>
+        <v>2.61</v>
       </c>
       <c r="T8">
-        <v>10.89</v>
+        <v>-21.82</v>
       </c>
       <c r="U8">
-        <v>10.16</v>
+        <v>-54.01</v>
       </c>
       <c r="V8">
-        <v>31.01</v>
+        <v>16.62</v>
       </c>
       <c r="W8">
-        <v>14.49</v>
+        <v>16.29</v>
       </c>
       <c r="X8">
-        <v>38673</v>
+        <v>183469</v>
       </c>
       <c r="Y8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>346</v>
+        <v>2088</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9">
-        <v>36.83</v>
+        <v>6.06</v>
       </c>
       <c r="G9">
-        <v>28.62</v>
+        <v>2107.66</v>
       </c>
       <c r="H9">
-        <v>30.9</v>
+        <v>2943.88</v>
       </c>
       <c r="I9">
-        <v>950466.69</v>
+        <v>1785750272</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7997.22</v>
+        <v>18072500</v>
       </c>
       <c r="L9">
-        <v>274413.09000000003</v>
+        <v>14170800</v>
       </c>
       <c r="M9">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="N9">
-        <v>0.16700000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="O9">
-        <v>2.5</v>
+        <v>4.38</v>
       </c>
       <c r="P9">
-        <v>2.46</v>
+        <v>0.84</v>
       </c>
       <c r="Q9">
-        <v>19940110</v>
+        <v>20060705</v>
       </c>
       <c r="R9">
-        <v>149405.76999999999</v>
+        <v>55911200</v>
       </c>
       <c r="S9">
-        <v>0.48</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>-11.94</v>
+        <v>3.45</v>
       </c>
       <c r="U9">
-        <v>13.5</v>
+        <v>2.48</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>50.83</v>
+        <v>36.53</v>
       </c>
       <c r="X9">
-        <v>99815</v>
+        <v>884907</v>
       </c>
       <c r="Y9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>1401</v>
+        <v>410</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F10">
-        <v>88.88</v>
+        <v>34.97</v>
       </c>
       <c r="G10">
-        <v>12.62</v>
+        <v>7.55</v>
       </c>
       <c r="H10">
-        <v>29.79</v>
+        <v>7.56</v>
       </c>
       <c r="I10">
-        <v>12461475</v>
+        <v>745572.94</v>
       </c>
       <c r="J10">
-        <v>5335203</v>
+        <v>506380</v>
       </c>
       <c r="K10">
-        <v>2203726</v>
+        <v>41964.55</v>
       </c>
       <c r="L10">
-        <v>312658.5</v>
+        <v>187980.25</v>
       </c>
       <c r="M10">
-        <v>1.05</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="N10">
-        <v>0.14000000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="O10">
-        <v>9.83</v>
+        <v>6.75</v>
       </c>
       <c r="P10">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q10">
-        <v>19940408</v>
+        <v>20040806</v>
       </c>
       <c r="R10">
-        <v>1749505.25</v>
+        <v>190461.06</v>
       </c>
       <c r="S10">
-        <v>5.87</v>
+        <v>2.52</v>
       </c>
       <c r="T10">
-        <v>-12.91</v>
+        <v>1.29</v>
       </c>
       <c r="U10">
-        <v>-73.37</v>
+        <v>-7.16</v>
       </c>
       <c r="V10">
-        <v>18.84</v>
+        <v>40.46</v>
       </c>
       <c r="W10">
-        <v>1.06</v>
+        <v>9.43</v>
       </c>
       <c r="X10">
-        <v>77211</v>
+        <v>45907</v>
       </c>
       <c r="Y10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>1780</v>
+        <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F11">
-        <v>11.24</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="G11">
-        <v>67.86</v>
+        <v>5.79</v>
       </c>
       <c r="H11">
-        <v>67.86</v>
+        <v>7.6</v>
       </c>
       <c r="I11">
-        <v>19883628</v>
+        <v>646022.13</v>
       </c>
       <c r="J11">
-        <v>1336194.1299999999</v>
+        <v>548989</v>
       </c>
       <c r="K11">
-        <v>12589430</v>
+        <v>55593.8</v>
       </c>
       <c r="L11">
-        <v>647237</v>
+        <v>8142.47</v>
       </c>
       <c r="M11">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="N11">
-        <v>0.502</v>
+        <v>0.49</v>
       </c>
       <c r="O11">
-        <v>4.1399999999999997</v>
+        <v>5.53</v>
       </c>
       <c r="P11">
-        <v>1.82</v>
+        <v>2.83</v>
       </c>
       <c r="Q11">
-        <v>19960118</v>
+        <v>20040805</v>
       </c>
       <c r="R11">
-        <v>1402043.88</v>
+        <v>305399.5</v>
       </c>
       <c r="S11">
-        <v>2.0699999999999998</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="T11">
-        <v>-9.23</v>
+        <v>10.16</v>
       </c>
       <c r="U11">
-        <v>-24.84</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="V11">
-        <v>52.83</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="W11">
-        <v>15.4</v>
+        <v>7.98</v>
       </c>
       <c r="X11">
-        <v>256080</v>
+        <v>38905</v>
       </c>
       <c r="Y11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>1785</v>
+        <v>303</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F12">
-        <v>356.21</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>13.47</v>
+        <v>50.18</v>
       </c>
       <c r="H12">
-        <v>13.48</v>
+        <v>93.1</v>
       </c>
       <c r="I12">
-        <v>4148004.5</v>
+        <v>13365485</v>
       </c>
       <c r="J12">
-        <v>1067384</v>
+        <v>7511211</v>
       </c>
       <c r="K12">
-        <v>2332499.75</v>
+        <v>1253429.75</v>
       </c>
       <c r="L12">
-        <v>492174.91</v>
+        <v>3240356.25</v>
       </c>
       <c r="M12">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="N12">
-        <v>3.9E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="O12">
-        <v>7.41</v>
+        <v>6.9</v>
       </c>
       <c r="P12">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="Q12">
-        <v>19960614</v>
+        <v>20040721</v>
       </c>
       <c r="R12">
-        <v>257862.52</v>
+        <v>1586162.25</v>
       </c>
       <c r="S12">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="T12">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="U12">
-        <v>103.08</v>
+        <v>-672.42</v>
       </c>
       <c r="V12">
-        <v>24.17</v>
+        <v>14.46</v>
       </c>
       <c r="W12">
-        <v>0.43</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="X12">
-        <v>50718</v>
+        <v>478692</v>
       </c>
       <c r="Y12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>1668</v>
+        <v>1866</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F13">
-        <v>14.48</v>
+        <v>25.57</v>
       </c>
       <c r="G13">
-        <v>16.649999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="H13">
-        <v>16.649999999999999</v>
+        <v>27.17</v>
       </c>
       <c r="I13">
-        <v>5748587</v>
+        <v>1738158.38</v>
       </c>
       <c r="J13">
-        <v>5184122.5</v>
+        <v>976829.63</v>
       </c>
       <c r="K13">
-        <v>140443.34</v>
+        <v>379892.81</v>
       </c>
       <c r="L13">
-        <v>179006.88</v>
+        <v>281227.25</v>
       </c>
       <c r="M13">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N13">
-        <v>0.47099999999999997</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="O13">
-        <v>5.28</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>1.72</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q13">
-        <v>19961003</v>
+        <v>20040623</v>
       </c>
       <c r="R13">
-        <v>454763.5</v>
+        <v>290596.31</v>
       </c>
       <c r="S13">
-        <v>2.73</v>
+        <v>1.07</v>
       </c>
       <c r="T13">
-        <v>52.93</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="U13">
-        <v>75.94</v>
+        <v>13.31</v>
       </c>
       <c r="V13">
-        <v>5.68</v>
+        <v>17.89</v>
       </c>
       <c r="W13">
-        <v>1.19</v>
+        <v>4.95</v>
       </c>
       <c r="X13">
-        <v>124475</v>
+        <v>98427</v>
       </c>
       <c r="Y13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>1388</v>
+        <v>2247</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F14">
-        <v>112.81</v>
+        <v>379.37</v>
       </c>
       <c r="G14">
-        <v>22.11</v>
+        <v>12.08</v>
       </c>
       <c r="H14">
-        <v>22.13</v>
+        <v>12.08</v>
       </c>
       <c r="I14">
-        <v>1639804.5</v>
+        <v>368195.75</v>
       </c>
       <c r="J14">
-        <v>544390.81000000006</v>
+        <v>214696.55</v>
       </c>
       <c r="K14">
-        <v>482405.81</v>
+        <v>69145.179999999993</v>
       </c>
       <c r="L14">
-        <v>147347.17000000001</v>
+        <v>116013.51</v>
       </c>
       <c r="M14">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="N14">
-        <v>7.400000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O14">
-        <v>3.44</v>
+        <v>2.57</v>
       </c>
       <c r="P14">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="Q14">
-        <v>19970123</v>
+        <v>20040526</v>
       </c>
       <c r="R14">
-        <v>338872.97</v>
+        <v>55797.4</v>
       </c>
       <c r="S14">
-        <v>1.53</v>
+        <v>0.46</v>
       </c>
       <c r="T14">
-        <v>-3.5</v>
+        <v>-52.18</v>
       </c>
       <c r="U14">
-        <v>62.1</v>
+        <v>-73.27</v>
       </c>
       <c r="V14">
-        <v>9.7200000000000006</v>
+        <v>14.68</v>
       </c>
       <c r="W14">
-        <v>1.48</v>
+        <v>2.8</v>
       </c>
       <c r="X14">
-        <v>161460</v>
+        <v>162823</v>
       </c>
       <c r="Y14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F15">
-        <v>9.92</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="G15">
-        <v>196.5</v>
+        <v>34.51</v>
       </c>
       <c r="H15">
-        <v>196.5</v>
+        <v>34.51</v>
       </c>
       <c r="I15">
-        <v>25593970</v>
+        <v>3970576.75</v>
       </c>
       <c r="J15">
-        <v>1800148.75</v>
+        <v>1609219.75</v>
       </c>
       <c r="K15">
-        <v>17629602</v>
+        <v>1201852.1299999999</v>
       </c>
       <c r="L15">
-        <v>640570.38</v>
+        <v>415878.34</v>
       </c>
       <c r="M15">
-        <v>0.33</v>
+        <v>1.21</v>
       </c>
       <c r="N15">
-        <v>0.24</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="O15">
-        <v>2.7</v>
+        <v>3.88</v>
       </c>
       <c r="P15">
-        <v>1.21</v>
+        <v>3.02</v>
       </c>
       <c r="Q15">
-        <v>19970318</v>
+        <v>20030814</v>
       </c>
       <c r="R15">
-        <v>1959330.38</v>
+        <v>509521.06</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="T15">
-        <v>-0.27</v>
+        <v>-33.82</v>
       </c>
       <c r="U15">
-        <v>-3.93</v>
+        <v>454.37</v>
       </c>
       <c r="V15">
-        <v>30.32</v>
+        <v>12.34</v>
       </c>
       <c r="W15">
-        <v>11.74</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>831855</v>
+        <v>259218</v>
       </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>569</v>
+        <v>193</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16">
-        <v>95.6</v>
+        <v>25.47</v>
       </c>
       <c r="G16">
-        <v>11.82</v>
+        <v>18.47</v>
       </c>
       <c r="H16">
-        <v>11.82</v>
+        <v>18.63</v>
       </c>
       <c r="I16">
-        <v>1085763.75</v>
+        <v>1775911.25</v>
       </c>
       <c r="J16">
-        <v>829955.25</v>
+        <v>1230210.5</v>
       </c>
       <c r="K16">
-        <v>64644.31</v>
+        <v>100489.8</v>
       </c>
       <c r="L16">
-        <v>161287.60999999999</v>
+        <v>21611.65</v>
       </c>
       <c r="M16">
-        <v>1.36</v>
+        <v>0.12</v>
       </c>
       <c r="N16">
-        <v>0.33600000000000002</v>
+        <v>0.83</v>
       </c>
       <c r="O16">
-        <v>4.12</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="P16">
-        <v>7.8</v>
+        <v>4.22</v>
       </c>
       <c r="Q16">
-        <v>19970908</v>
+        <v>20030711</v>
       </c>
       <c r="R16">
-        <v>196923.72</v>
+        <v>572147.38</v>
       </c>
       <c r="S16">
-        <v>1.67</v>
+        <v>3.07</v>
       </c>
       <c r="T16">
-        <v>16.309999999999999</v>
+        <v>14.43</v>
       </c>
       <c r="U16">
-        <v>3.69</v>
+        <v>-1.21</v>
       </c>
       <c r="V16">
-        <v>13.51</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="W16">
-        <v>6.28</v>
+        <v>6</v>
       </c>
       <c r="X16">
-        <v>147036</v>
+        <v>84333</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>1100</v>
+        <v>501</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F17">
-        <v>15.4</v>
+        <v>236.87</v>
       </c>
       <c r="G17">
-        <v>61.22</v>
+        <v>75.94</v>
       </c>
       <c r="H17">
-        <v>82.06</v>
+        <v>76.58</v>
       </c>
       <c r="I17">
-        <v>13574926</v>
+        <v>6003771.5</v>
       </c>
       <c r="J17">
-        <v>9831231</v>
+        <v>3570230.5</v>
       </c>
       <c r="K17">
-        <v>1458383.25</v>
+        <v>1496619.38</v>
       </c>
       <c r="L17">
-        <v>553591.88</v>
+        <v>55998.6</v>
       </c>
       <c r="M17">
-        <v>0.67</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N17">
-        <v>0.35499999999999998</v>
+        <v>2.3E-2</v>
       </c>
       <c r="O17">
-        <v>4.84</v>
+        <v>3.07</v>
       </c>
       <c r="P17">
-        <v>1.51</v>
+        <v>2.35</v>
       </c>
       <c r="Q17">
-        <v>19970910</v>
+        <v>20030703</v>
       </c>
       <c r="R17">
-        <v>2412827.5</v>
+        <v>1357585.25</v>
       </c>
       <c r="S17">
-        <v>2.94</v>
+        <v>1.77</v>
       </c>
       <c r="T17">
-        <v>9.25</v>
+        <v>-11.04</v>
       </c>
       <c r="U17">
-        <v>17.09</v>
+        <v>328.48</v>
       </c>
       <c r="V17">
-        <v>46.53</v>
+        <v>26.5</v>
       </c>
       <c r="W17">
-        <v>15.31</v>
+        <v>1.06</v>
       </c>
       <c r="X17">
-        <v>113320</v>
+        <v>451598</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>1376</v>
+        <v>1222</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F18">
-        <v>9.6300000000000008</v>
+        <v>417.57</v>
       </c>
       <c r="G18">
-        <v>110.26</v>
+        <v>7.85</v>
       </c>
       <c r="H18">
-        <v>116.83</v>
+        <v>7.85</v>
       </c>
       <c r="I18">
-        <v>54494580</v>
+        <v>382808.47</v>
       </c>
       <c r="J18">
-        <v>29309072</v>
+        <v>183435.59</v>
       </c>
       <c r="K18">
-        <v>4209782.5</v>
+        <v>95432.06</v>
       </c>
       <c r="L18">
-        <v>4098541.5</v>
+        <v>37030.44</v>
       </c>
       <c r="M18">
-        <v>3.51</v>
+        <v>0.47</v>
       </c>
       <c r="N18">
-        <v>1.976</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O18">
-        <v>16.7</v>
+        <v>2.39</v>
       </c>
       <c r="P18">
-        <v>1.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q18">
-        <v>19971125</v>
+        <v>20030609</v>
       </c>
       <c r="R18">
-        <v>9434767</v>
+        <v>58338.63</v>
       </c>
       <c r="S18">
-        <v>8.08</v>
+        <v>0.74</v>
       </c>
       <c r="T18">
-        <v>11.5</v>
+        <v>-12.52</v>
       </c>
       <c r="U18">
-        <v>8.6</v>
+        <v>-91.13</v>
       </c>
       <c r="V18">
-        <v>12.42</v>
+        <v>11.99</v>
       </c>
       <c r="W18">
-        <v>4.41</v>
+        <v>1.29</v>
       </c>
       <c r="X18">
-        <v>103501</v>
+        <v>52016</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>168</v>
+        <v>879</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>13.01</v>
       </c>
       <c r="G19">
-        <v>13.78</v>
+        <v>11.5</v>
       </c>
       <c r="H19">
-        <v>13.78</v>
+        <v>11.5</v>
       </c>
       <c r="I19">
-        <v>5170423</v>
+        <v>1694419.25</v>
       </c>
       <c r="J19">
-        <v>3601232.75</v>
+        <v>362969.34</v>
       </c>
       <c r="K19">
-        <v>1132721.6299999999</v>
+        <v>712195.69</v>
       </c>
       <c r="L19">
-        <v>462036.56</v>
+        <v>378538.25</v>
       </c>
       <c r="M19">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="N19">
-        <v>-0.317</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="O19">
-        <v>12.42</v>
+        <v>9.25</v>
       </c>
       <c r="P19">
-        <v>2.2799999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="Q19">
-        <v>19980520</v>
+        <v>20030428</v>
       </c>
       <c r="R19">
-        <v>1049208.25</v>
+        <v>505901.19</v>
       </c>
       <c r="S19">
-        <v>7.61</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T19">
-        <v>-20.52</v>
+        <v>8.06</v>
       </c>
       <c r="U19">
-        <v>-355.48</v>
+        <v>14.11</v>
       </c>
       <c r="V19">
-        <v>9.65</v>
+        <v>39.36</v>
       </c>
       <c r="W19">
-        <v>-2.5099999999999998</v>
+        <v>23.31</v>
       </c>
       <c r="X19">
-        <v>135039</v>
+        <v>33752</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>1959</v>
+        <v>1077</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F20">
-        <v>97.55</v>
+        <v>29.59</v>
       </c>
       <c r="G20">
-        <v>14.16</v>
+        <v>11.66</v>
       </c>
       <c r="H20">
-        <v>14.16</v>
+        <v>16.59</v>
       </c>
       <c r="I20">
-        <v>2304751.5</v>
+        <v>1312080.25</v>
       </c>
       <c r="J20">
-        <v>1039831.19</v>
+        <v>227616.27</v>
       </c>
       <c r="K20">
-        <v>738083.13</v>
+        <v>88295.25</v>
       </c>
       <c r="L20">
-        <v>440104.19</v>
+        <v>28052.33</v>
       </c>
       <c r="M20">
-        <v>3.11</v>
+        <v>0.17</v>
       </c>
       <c r="N20">
-        <v>0.14399999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="O20">
-        <v>3.95</v>
+        <v>5.23</v>
       </c>
       <c r="P20">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="Q20">
-        <v>19980602</v>
+        <v>20030107</v>
       </c>
       <c r="R20">
-        <v>-58504.23</v>
+        <v>578746.43999999994</v>
       </c>
       <c r="S20">
-        <v>-0.41</v>
+        <v>3.49</v>
       </c>
       <c r="T20">
-        <v>4.4800000000000004</v>
+        <v>2.97</v>
       </c>
       <c r="U20">
-        <v>683.79</v>
+        <v>-0.49</v>
       </c>
       <c r="V20">
-        <v>3.4</v>
+        <v>57.49</v>
       </c>
       <c r="W20">
-        <v>0.34</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="X20">
-        <v>137048</v>
+        <v>21770</v>
       </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>1841</v>
+        <v>2282</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21">
-        <v>30.26</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="G21">
-        <v>4.3</v>
+        <v>98.15</v>
       </c>
       <c r="H21">
-        <v>4.3</v>
+        <v>121.17</v>
       </c>
       <c r="I21">
-        <v>585695.13</v>
+        <v>59743884</v>
       </c>
       <c r="J21">
-        <v>331467.34000000003</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>147565.51999999999</v>
+        <v>365947.03</v>
       </c>
       <c r="L21">
-        <v>91407.75</v>
+        <v>5445852.5</v>
       </c>
       <c r="M21">
-        <v>2.13</v>
+        <v>4.49</v>
       </c>
       <c r="N21">
-        <v>0.499</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="O21">
-        <v>7.39</v>
+        <v>11.78</v>
       </c>
       <c r="P21">
-        <v>2.73</v>
+        <v>1.37</v>
       </c>
       <c r="Q21">
-        <v>19990107</v>
+        <v>20030106</v>
       </c>
       <c r="R21">
-        <v>158595.38</v>
+        <v>4719229</v>
       </c>
       <c r="S21">
-        <v>3.69</v>
+        <v>3.89</v>
       </c>
       <c r="T21">
-        <v>-11.81</v>
+        <v>-32.159999999999997</v>
       </c>
       <c r="U21">
-        <v>-6.63</v>
+        <v>-47.65</v>
       </c>
       <c r="V21">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>7.81</v>
+        <v>27.28</v>
       </c>
       <c r="X21">
-        <v>20856</v>
+        <v>563612</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1253</v>
+        <v>2223</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F22">
-        <v>19.28</v>
+        <v>25.43</v>
       </c>
       <c r="G22">
-        <v>220.77</v>
+        <v>2.25</v>
       </c>
       <c r="H22">
-        <v>221.03</v>
+        <v>2.25</v>
       </c>
       <c r="I22">
-        <v>26687294</v>
+        <v>229126.55</v>
       </c>
       <c r="J22">
-        <v>10141921</v>
+        <v>167062.67000000001</v>
       </c>
       <c r="K22">
-        <v>11078174</v>
+        <v>33488.949999999997</v>
       </c>
       <c r="L22">
-        <v>3377792.75</v>
+        <v>26196.86</v>
       </c>
       <c r="M22">
-        <v>1.53</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N22">
-        <v>0.253</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="O22">
-        <v>7.16</v>
+        <v>8.81</v>
       </c>
       <c r="P22">
-        <v>0.91</v>
+        <v>4.68</v>
       </c>
       <c r="Q22">
-        <v>20001212</v>
+        <v>20021210</v>
       </c>
       <c r="R22">
-        <v>4175795.25</v>
+        <v>133810.16</v>
       </c>
       <c r="S22">
-        <v>1.89</v>
+        <v>5.95</v>
       </c>
       <c r="T22">
-        <v>9.1999999999999993</v>
+        <v>3.1</v>
       </c>
       <c r="U22">
-        <v>148.33000000000001</v>
+        <v>15.14</v>
       </c>
       <c r="V22">
-        <v>12.23</v>
+        <v>42.02</v>
       </c>
       <c r="W22">
-        <v>4.1900000000000004</v>
+        <v>25.42</v>
       </c>
       <c r="X22">
-        <v>300952</v>
+        <v>15996</v>
       </c>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2365</v>
+        <v>342</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23">
+        <v>1027.68</v>
+      </c>
+      <c r="G23">
+        <v>211.97</v>
+      </c>
+      <c r="H23">
+        <v>211.97</v>
+      </c>
+      <c r="I23">
+        <v>61590732</v>
+      </c>
+      <c r="J23">
+        <v>8223389</v>
+      </c>
+      <c r="K23">
+        <v>37109980</v>
+      </c>
+      <c r="L23">
+        <v>2781153.25</v>
+      </c>
+      <c r="M23">
+        <v>1.31</v>
+      </c>
+      <c r="N23">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O23">
+        <v>3.66</v>
+      </c>
+      <c r="P23">
+        <v>2.04</v>
+      </c>
+      <c r="Q23">
+        <v>20021009</v>
+      </c>
+      <c r="R23">
+        <v>2943286</v>
+      </c>
+      <c r="S23">
+        <v>1.39</v>
+      </c>
+      <c r="T23">
+        <v>-1.03</v>
+      </c>
+      <c r="U23">
+        <v>-95.56</v>
+      </c>
+      <c r="V23">
+        <v>22.83</v>
+      </c>
+      <c r="W23">
+        <v>0.06</v>
+      </c>
+      <c r="X23">
+        <v>633697</v>
+      </c>
+      <c r="Y23" t="s">
         <v>177</v>
-      </c>
-      <c r="F23">
-        <v>27.28</v>
-      </c>
-      <c r="G23">
-        <v>17.78</v>
-      </c>
-      <c r="H23">
-        <v>17.78</v>
-      </c>
-      <c r="I23">
-        <v>774225.06</v>
-      </c>
-      <c r="J23">
-        <v>322089</v>
-      </c>
-      <c r="K23">
-        <v>362568.16</v>
-      </c>
-      <c r="L23">
-        <v>242022.13</v>
-      </c>
-      <c r="M23">
-        <v>1.36</v>
-      </c>
-      <c r="N23">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="O23">
-        <v>3.29</v>
-      </c>
-      <c r="P23">
-        <v>3.43</v>
-      </c>
-      <c r="Q23">
-        <v>20020329</v>
-      </c>
-      <c r="R23">
-        <v>35046.449999999997</v>
-      </c>
-      <c r="S23">
-        <v>0.2</v>
-      </c>
-      <c r="T23">
-        <v>-15.3</v>
-      </c>
-      <c r="U23">
-        <v>11.59</v>
-      </c>
-      <c r="V23">
-        <v>79.23</v>
-      </c>
-      <c r="W23">
-        <v>23.75</v>
-      </c>
-      <c r="X23">
-        <v>105453</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>2014</v>
+        <v>834</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
         <v>166</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>91.82</v>
       </c>
       <c r="G24">
-        <v>4.3</v>
+        <v>4.07</v>
       </c>
       <c r="H24">
-        <v>4.3</v>
+        <v>5.47</v>
       </c>
       <c r="I24">
-        <v>689530.19</v>
+        <v>767241.38</v>
       </c>
       <c r="J24">
-        <v>395478.5</v>
+        <v>591688.18999999994</v>
       </c>
       <c r="K24">
-        <v>262169.21999999997</v>
+        <v>56098.05</v>
       </c>
       <c r="L24">
-        <v>237071.52</v>
+        <v>170119.16</v>
       </c>
       <c r="M24">
-        <v>5.51</v>
+        <v>3.11</v>
       </c>
       <c r="N24">
-        <v>-0.27</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="O24">
-        <v>7.6</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P24">
-        <v>3.08</v>
+        <v>2.52</v>
       </c>
       <c r="Q24">
-        <v>20020412</v>
+        <v>20020722</v>
       </c>
       <c r="R24">
-        <v>29348.55</v>
+        <v>25963.25</v>
       </c>
       <c r="S24">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="T24">
-        <v>2.5499999999999998</v>
+        <v>1.63</v>
       </c>
       <c r="U24">
-        <v>-29.11</v>
+        <v>-18.190000000000001</v>
       </c>
       <c r="V24">
-        <v>11.86</v>
+        <v>17.54</v>
       </c>
       <c r="W24">
-        <v>-7.52</v>
+        <v>2.17</v>
       </c>
       <c r="X24">
-        <v>33767</v>
+        <v>75743</v>
       </c>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>834</v>
+        <v>2014</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25">
-        <v>91.82</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4.07</v>
+        <v>4.3</v>
       </c>
       <c r="H25">
-        <v>5.47</v>
+        <v>4.3</v>
       </c>
       <c r="I25">
-        <v>767241.38</v>
+        <v>689530.19</v>
       </c>
       <c r="J25">
-        <v>591688.18999999994</v>
+        <v>395478.5</v>
       </c>
       <c r="K25">
-        <v>56098.05</v>
+        <v>262169.21999999997</v>
       </c>
       <c r="L25">
-        <v>170119.16</v>
+        <v>237071.52</v>
       </c>
       <c r="M25">
-        <v>3.11</v>
+        <v>5.51</v>
       </c>
       <c r="N25">
-        <v>9.6000000000000002E-2</v>
+        <v>-0.27</v>
       </c>
       <c r="O25">
-        <v>4.6399999999999997</v>
+        <v>7.6</v>
       </c>
       <c r="P25">
-        <v>2.52</v>
+        <v>3.08</v>
       </c>
       <c r="Q25">
-        <v>20020722</v>
+        <v>20020412</v>
       </c>
       <c r="R25">
-        <v>25963.25</v>
+        <v>29348.55</v>
       </c>
       <c r="S25">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="T25">
-        <v>1.63</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="U25">
-        <v>-18.190000000000001</v>
+        <v>-29.11</v>
       </c>
       <c r="V25">
-        <v>17.54</v>
+        <v>11.86</v>
       </c>
       <c r="W25">
-        <v>2.17</v>
+        <v>-7.52</v>
       </c>
       <c r="X25">
-        <v>75743</v>
+        <v>33767</v>
       </c>
       <c r="Y25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>342</v>
+        <v>2365</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F26">
-        <v>1027.68</v>
+        <v>27.28</v>
       </c>
       <c r="G26">
-        <v>211.97</v>
+        <v>17.78</v>
       </c>
       <c r="H26">
-        <v>211.97</v>
+        <v>17.78</v>
       </c>
       <c r="I26">
-        <v>61590732</v>
+        <v>774225.06</v>
       </c>
       <c r="J26">
-        <v>8223389</v>
+        <v>322089</v>
       </c>
       <c r="K26">
-        <v>37109980</v>
+        <v>362568.16</v>
       </c>
       <c r="L26">
-        <v>2781153.25</v>
+        <v>242022.13</v>
       </c>
       <c r="M26">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="N26">
-        <v>6.9999999999999993E-3</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="O26">
-        <v>3.66</v>
+        <v>3.29</v>
       </c>
       <c r="P26">
-        <v>2.04</v>
+        <v>3.43</v>
       </c>
       <c r="Q26">
-        <v>20021009</v>
+        <v>20020329</v>
       </c>
       <c r="R26">
-        <v>2943286</v>
+        <v>35046.449999999997</v>
       </c>
       <c r="S26">
-        <v>1.39</v>
+        <v>0.2</v>
       </c>
       <c r="T26">
-        <v>-1.03</v>
+        <v>-15.3</v>
       </c>
       <c r="U26">
-        <v>-95.56</v>
+        <v>11.59</v>
       </c>
       <c r="V26">
-        <v>22.83</v>
+        <v>79.23</v>
       </c>
       <c r="W26">
-        <v>0.06</v>
+        <v>23.75</v>
       </c>
       <c r="X26">
-        <v>633697</v>
+        <v>105453</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>2223</v>
+        <v>1253</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F27">
-        <v>25.43</v>
+        <v>19.28</v>
       </c>
       <c r="G27">
-        <v>2.25</v>
+        <v>220.77</v>
       </c>
       <c r="H27">
-        <v>2.25</v>
+        <v>221.03</v>
       </c>
       <c r="I27">
-        <v>229126.55</v>
+        <v>26687294</v>
       </c>
       <c r="J27">
-        <v>167062.67000000001</v>
+        <v>10141921</v>
       </c>
       <c r="K27">
-        <v>33488.949999999997</v>
+        <v>11078174</v>
       </c>
       <c r="L27">
-        <v>26196.86</v>
+        <v>3377792.75</v>
       </c>
       <c r="M27">
-        <v>1.1599999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="N27">
-        <v>1.2170000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="O27">
-        <v>8.81</v>
+        <v>7.16</v>
       </c>
       <c r="P27">
-        <v>4.68</v>
+        <v>0.91</v>
       </c>
       <c r="Q27">
-        <v>20021210</v>
+        <v>20001212</v>
       </c>
       <c r="R27">
-        <v>133810.16</v>
+        <v>4175795.25</v>
       </c>
       <c r="S27">
-        <v>5.95</v>
+        <v>1.89</v>
       </c>
       <c r="T27">
-        <v>3.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U27">
-        <v>15.14</v>
+        <v>148.33000000000001</v>
       </c>
       <c r="V27">
-        <v>42.02</v>
+        <v>12.23</v>
       </c>
       <c r="W27">
-        <v>25.42</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="X27">
-        <v>15996</v>
+        <v>300952</v>
       </c>
       <c r="Y27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>2282</v>
+        <v>1841</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
       </c>
       <c r="F28">
-        <v>18.829999999999998</v>
+        <v>30.26</v>
       </c>
       <c r="G28">
-        <v>98.15</v>
+        <v>4.3</v>
       </c>
       <c r="H28">
-        <v>121.17</v>
+        <v>4.3</v>
       </c>
       <c r="I28">
-        <v>59743884</v>
+        <v>585695.13</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>331467.34000000003</v>
       </c>
       <c r="K28">
-        <v>365947.03</v>
+        <v>147565.51999999999</v>
       </c>
       <c r="L28">
-        <v>5445852.5</v>
+        <v>91407.75</v>
       </c>
       <c r="M28">
-        <v>4.49</v>
+        <v>2.13</v>
       </c>
       <c r="N28">
-        <v>0.85499999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="O28">
-        <v>11.78</v>
+        <v>7.39</v>
       </c>
       <c r="P28">
-        <v>1.37</v>
+        <v>2.73</v>
       </c>
       <c r="Q28">
-        <v>20030106</v>
+        <v>19990107</v>
       </c>
       <c r="R28">
-        <v>4719229</v>
+        <v>158595.38</v>
       </c>
       <c r="S28">
-        <v>3.89</v>
+        <v>3.69</v>
       </c>
       <c r="T28">
-        <v>-32.159999999999997</v>
+        <v>-11.81</v>
       </c>
       <c r="U28">
-        <v>-47.65</v>
+        <v>-6.63</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>29.13</v>
       </c>
       <c r="W28">
-        <v>27.28</v>
+        <v>7.81</v>
       </c>
       <c r="X28">
-        <v>563612</v>
+        <v>20856</v>
       </c>
       <c r="Y28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>1077</v>
+        <v>1959</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F29">
-        <v>29.59</v>
+        <v>97.55</v>
       </c>
       <c r="G29">
-        <v>11.66</v>
+        <v>14.16</v>
       </c>
       <c r="H29">
-        <v>16.59</v>
+        <v>14.16</v>
       </c>
       <c r="I29">
-        <v>1312080.25</v>
+        <v>2304751.5</v>
       </c>
       <c r="J29">
-        <v>227616.27</v>
+        <v>1039831.19</v>
       </c>
       <c r="K29">
-        <v>88295.25</v>
+        <v>738083.13</v>
       </c>
       <c r="L29">
-        <v>28052.33</v>
+        <v>440104.19</v>
       </c>
       <c r="M29">
-        <v>0.17</v>
+        <v>3.11</v>
       </c>
       <c r="N29">
-        <v>0.56299999999999994</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="O29">
-        <v>5.23</v>
+        <v>3.95</v>
       </c>
       <c r="P29">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="Q29">
-        <v>20030107</v>
+        <v>19980602</v>
       </c>
       <c r="R29">
-        <v>578746.43999999994</v>
+        <v>-58504.23</v>
       </c>
       <c r="S29">
-        <v>3.49</v>
+        <v>-0.41</v>
       </c>
       <c r="T29">
-        <v>2.97</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="U29">
-        <v>-0.49</v>
+        <v>683.79</v>
       </c>
       <c r="V29">
-        <v>57.49</v>
+        <v>3.4</v>
       </c>
       <c r="W29">
-        <v>37.340000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="X29">
-        <v>21770</v>
+        <v>137048</v>
       </c>
       <c r="Y29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>879</v>
+        <v>168</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F30">
-        <v>13.01</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>11.5</v>
+        <v>13.78</v>
       </c>
       <c r="H30">
-        <v>11.5</v>
+        <v>13.78</v>
       </c>
       <c r="I30">
-        <v>1694419.25</v>
+        <v>5170423</v>
       </c>
       <c r="J30">
-        <v>362969.34</v>
+        <v>3601232.75</v>
       </c>
       <c r="K30">
-        <v>712195.69</v>
+        <v>1132721.6299999999</v>
       </c>
       <c r="L30">
-        <v>378538.25</v>
+        <v>462036.56</v>
       </c>
       <c r="M30">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="N30">
-        <v>0.91900000000000004</v>
+        <v>-0.317</v>
       </c>
       <c r="O30">
-        <v>9.25</v>
+        <v>12.42</v>
       </c>
       <c r="P30">
-        <v>1.72</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q30">
-        <v>20030428</v>
+        <v>19980520</v>
       </c>
       <c r="R30">
-        <v>505901.19</v>
+        <v>1049208.25</v>
       </c>
       <c r="S30">
-        <v>4.4000000000000004</v>
+        <v>7.61</v>
       </c>
       <c r="T30">
-        <v>8.06</v>
+        <v>-20.52</v>
       </c>
       <c r="U30">
-        <v>14.11</v>
+        <v>-355.48</v>
       </c>
       <c r="V30">
-        <v>39.36</v>
+        <v>9.65</v>
       </c>
       <c r="W30">
-        <v>23.31</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="X30">
-        <v>33752</v>
+        <v>135039</v>
       </c>
       <c r="Y30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>1222</v>
+        <v>1376</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F31">
-        <v>417.57</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="G31">
-        <v>7.85</v>
+        <v>110.26</v>
       </c>
       <c r="H31">
-        <v>7.85</v>
+        <v>116.83</v>
       </c>
       <c r="I31">
-        <v>382808.47</v>
+        <v>54494580</v>
       </c>
       <c r="J31">
-        <v>183435.59</v>
+        <v>29309072</v>
       </c>
       <c r="K31">
-        <v>95432.06</v>
+        <v>4209782.5</v>
       </c>
       <c r="L31">
-        <v>37030.44</v>
+        <v>4098541.5</v>
       </c>
       <c r="M31">
-        <v>0.47</v>
+        <v>3.51</v>
       </c>
       <c r="N31">
-        <v>1.6E-2</v>
+        <v>1.976</v>
       </c>
       <c r="O31">
-        <v>2.39</v>
+        <v>16.7</v>
       </c>
       <c r="P31">
-        <v>3.62</v>
+        <v>1.52</v>
       </c>
       <c r="Q31">
-        <v>20030609</v>
+        <v>19971125</v>
       </c>
       <c r="R31">
-        <v>58338.63</v>
+        <v>9434767</v>
       </c>
       <c r="S31">
-        <v>0.74</v>
+        <v>8.08</v>
       </c>
       <c r="T31">
-        <v>-12.52</v>
+        <v>11.5</v>
       </c>
       <c r="U31">
-        <v>-91.13</v>
+        <v>8.6</v>
       </c>
       <c r="V31">
-        <v>11.99</v>
+        <v>12.42</v>
       </c>
       <c r="W31">
-        <v>1.29</v>
+        <v>4.41</v>
       </c>
       <c r="X31">
-        <v>52016</v>
+        <v>103501</v>
       </c>
       <c r="Y31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>501</v>
+        <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F32">
-        <v>236.87</v>
+        <v>15.4</v>
       </c>
       <c r="G32">
-        <v>75.94</v>
+        <v>61.22</v>
       </c>
       <c r="H32">
-        <v>76.58</v>
+        <v>82.06</v>
       </c>
       <c r="I32">
-        <v>6003771.5</v>
+        <v>13574926</v>
       </c>
       <c r="J32">
-        <v>3570230.5</v>
+        <v>9831231</v>
       </c>
       <c r="K32">
-        <v>1496619.38</v>
+        <v>1458383.25</v>
       </c>
       <c r="L32">
-        <v>55998.6</v>
+        <v>553591.88</v>
       </c>
       <c r="M32">
-        <v>7.0000000000000007E-2</v>
+        <v>0.67</v>
       </c>
       <c r="N32">
-        <v>2.3E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="O32">
-        <v>3.07</v>
+        <v>4.84</v>
       </c>
       <c r="P32">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="Q32">
-        <v>20030703</v>
+        <v>19970910</v>
       </c>
       <c r="R32">
-        <v>1357585.25</v>
+        <v>2412827.5</v>
       </c>
       <c r="S32">
-        <v>1.77</v>
+        <v>2.94</v>
       </c>
       <c r="T32">
-        <v>-11.04</v>
+        <v>9.25</v>
       </c>
       <c r="U32">
-        <v>328.48</v>
+        <v>17.09</v>
       </c>
       <c r="V32">
-        <v>26.5</v>
+        <v>46.53</v>
       </c>
       <c r="W32">
-        <v>1.06</v>
+        <v>15.31</v>
       </c>
       <c r="X32">
-        <v>451598</v>
+        <v>113320</v>
       </c>
       <c r="Y32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>193</v>
+        <v>569</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33">
-        <v>25.47</v>
+        <v>95.6</v>
       </c>
       <c r="G33">
-        <v>18.47</v>
+        <v>11.82</v>
       </c>
       <c r="H33">
-        <v>18.63</v>
+        <v>11.82</v>
       </c>
       <c r="I33">
-        <v>1775911.25</v>
+        <v>1085763.75</v>
       </c>
       <c r="J33">
-        <v>1230210.5</v>
+        <v>829955.25</v>
       </c>
       <c r="K33">
-        <v>100489.8</v>
+        <v>64644.31</v>
       </c>
       <c r="L33">
-        <v>21611.65</v>
+        <v>161287.60999999999</v>
       </c>
       <c r="M33">
-        <v>0.12</v>
+        <v>1.36</v>
       </c>
       <c r="N33">
-        <v>0.83</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="O33">
-        <v>4.9800000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="P33">
-        <v>4.22</v>
+        <v>7.8</v>
       </c>
       <c r="Q33">
-        <v>20030711</v>
+        <v>19970908</v>
       </c>
       <c r="R33">
-        <v>572147.38</v>
+        <v>196923.72</v>
       </c>
       <c r="S33">
-        <v>3.07</v>
+        <v>1.67</v>
       </c>
       <c r="T33">
-        <v>14.43</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="U33">
-        <v>-1.21</v>
+        <v>3.69</v>
       </c>
       <c r="V33">
-        <v>17.100000000000001</v>
+        <v>13.51</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>6.28</v>
       </c>
       <c r="X33">
-        <v>84333</v>
+        <v>147036</v>
       </c>
       <c r="Y33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>840</v>
+        <v>874</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -3532,1073 +3533,1073 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F34">
-        <v>74.260000000000005</v>
+        <v>9.92</v>
       </c>
       <c r="G34">
-        <v>34.51</v>
+        <v>196.5</v>
       </c>
       <c r="H34">
-        <v>34.51</v>
+        <v>196.5</v>
       </c>
       <c r="I34">
-        <v>3970576.75</v>
+        <v>25593970</v>
       </c>
       <c r="J34">
-        <v>1609219.75</v>
+        <v>1800148.75</v>
       </c>
       <c r="K34">
-        <v>1201852.1299999999</v>
+        <v>17629602</v>
       </c>
       <c r="L34">
-        <v>415878.34</v>
+        <v>640570.38</v>
       </c>
       <c r="M34">
+        <v>0.33</v>
+      </c>
+      <c r="N34">
+        <v>0.24</v>
+      </c>
+      <c r="O34">
+        <v>2.7</v>
+      </c>
+      <c r="P34">
         <v>1.21</v>
       </c>
-      <c r="N34">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="O34">
-        <v>3.88</v>
-      </c>
-      <c r="P34">
-        <v>3.02</v>
-      </c>
       <c r="Q34">
-        <v>20030814</v>
+        <v>19970318</v>
       </c>
       <c r="R34">
-        <v>509521.06</v>
+        <v>1959330.38</v>
       </c>
       <c r="S34">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>-33.82</v>
+        <v>-0.27</v>
       </c>
       <c r="U34">
-        <v>454.37</v>
+        <v>-3.93</v>
       </c>
       <c r="V34">
-        <v>12.34</v>
+        <v>30.32</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>11.74</v>
       </c>
       <c r="X34">
-        <v>259218</v>
+        <v>831855</v>
       </c>
       <c r="Y34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>2247</v>
+        <v>1388</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F35">
-        <v>379.37</v>
+        <v>112.81</v>
       </c>
       <c r="G35">
-        <v>12.08</v>
+        <v>22.11</v>
       </c>
       <c r="H35">
-        <v>12.08</v>
+        <v>22.13</v>
       </c>
       <c r="I35">
-        <v>368195.75</v>
+        <v>1639804.5</v>
       </c>
       <c r="J35">
-        <v>214696.55</v>
+        <v>544390.81000000006</v>
       </c>
       <c r="K35">
-        <v>69145.179999999993</v>
+        <v>482405.81</v>
       </c>
       <c r="L35">
-        <v>116013.51</v>
+        <v>147347.17000000001</v>
       </c>
       <c r="M35">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="N35">
-        <v>2.1999999999999999E-2</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="O35">
-        <v>2.57</v>
+        <v>3.44</v>
       </c>
       <c r="P35">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="Q35">
-        <v>20040526</v>
+        <v>19970123</v>
       </c>
       <c r="R35">
-        <v>55797.4</v>
+        <v>338872.97</v>
       </c>
       <c r="S35">
-        <v>0.46</v>
+        <v>1.53</v>
       </c>
       <c r="T35">
-        <v>-52.18</v>
+        <v>-3.5</v>
       </c>
       <c r="U35">
-        <v>-73.27</v>
+        <v>62.1</v>
       </c>
       <c r="V35">
-        <v>14.68</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="W35">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="X35">
-        <v>162823</v>
+        <v>161460</v>
       </c>
       <c r="Y35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>1866</v>
+        <v>1668</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F36">
-        <v>25.57</v>
+        <v>14.48</v>
       </c>
       <c r="G36">
-        <v>25.6</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="H36">
-        <v>27.17</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="I36">
-        <v>1738158.38</v>
+        <v>5748587</v>
       </c>
       <c r="J36">
-        <v>976829.63</v>
+        <v>5184122.5</v>
       </c>
       <c r="K36">
-        <v>379892.81</v>
+        <v>140443.34</v>
       </c>
       <c r="L36">
-        <v>281227.25</v>
+        <v>179006.88</v>
       </c>
       <c r="M36">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N36">
-        <v>0.22700000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>5.28</v>
       </c>
       <c r="P36">
-        <v>2.2799999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="Q36">
-        <v>20040623</v>
+        <v>19961003</v>
       </c>
       <c r="R36">
-        <v>290596.31</v>
+        <v>454763.5</v>
       </c>
       <c r="S36">
-        <v>1.07</v>
+        <v>2.73</v>
       </c>
       <c r="T36">
-        <v>8.5399999999999991</v>
+        <v>52.93</v>
       </c>
       <c r="U36">
-        <v>13.31</v>
+        <v>75.94</v>
       </c>
       <c r="V36">
-        <v>17.89</v>
+        <v>5.68</v>
       </c>
       <c r="W36">
-        <v>4.95</v>
+        <v>1.19</v>
       </c>
       <c r="X36">
-        <v>98427</v>
+        <v>124475</v>
       </c>
       <c r="Y36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>303</v>
+        <v>1785</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>356.21</v>
       </c>
       <c r="G37">
-        <v>50.18</v>
+        <v>13.47</v>
       </c>
       <c r="H37">
-        <v>93.1</v>
+        <v>13.48</v>
       </c>
       <c r="I37">
-        <v>13365485</v>
+        <v>4148004.5</v>
       </c>
       <c r="J37">
-        <v>7511211</v>
+        <v>1067384</v>
       </c>
       <c r="K37">
-        <v>1253429.75</v>
+        <v>2332499.75</v>
       </c>
       <c r="L37">
-        <v>3240356.25</v>
+        <v>492174.91</v>
       </c>
       <c r="M37">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="N37">
-        <v>-0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O37">
-        <v>6.9</v>
+        <v>7.41</v>
       </c>
       <c r="P37">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="Q37">
-        <v>20040721</v>
+        <v>19960614</v>
       </c>
       <c r="R37">
-        <v>1586162.25</v>
+        <v>257862.52</v>
       </c>
       <c r="S37">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="T37">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="U37">
-        <v>-672.42</v>
+        <v>103.08</v>
       </c>
       <c r="V37">
-        <v>14.46</v>
+        <v>24.17</v>
       </c>
       <c r="W37">
-        <v>-0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="X37">
-        <v>478692</v>
+        <v>50718</v>
       </c>
       <c r="Y37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>202</v>
+        <v>1780</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F38">
-        <v>33.880000000000003</v>
+        <v>11.24</v>
       </c>
       <c r="G38">
-        <v>5.79</v>
+        <v>67.86</v>
       </c>
       <c r="H38">
-        <v>7.6</v>
+        <v>67.86</v>
       </c>
       <c r="I38">
-        <v>646022.13</v>
+        <v>19883628</v>
       </c>
       <c r="J38">
-        <v>548989</v>
+        <v>1336194.1299999999</v>
       </c>
       <c r="K38">
-        <v>55593.8</v>
+        <v>12589430</v>
       </c>
       <c r="L38">
-        <v>8142.47</v>
+        <v>647237</v>
       </c>
       <c r="M38">
-        <v>0.11</v>
+        <v>0.95</v>
       </c>
       <c r="N38">
-        <v>0.49</v>
+        <v>0.502</v>
       </c>
       <c r="O38">
-        <v>5.53</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P38">
-        <v>2.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q38">
-        <v>20040805</v>
+        <v>19960118</v>
       </c>
       <c r="R38">
-        <v>305399.5</v>
+        <v>1402043.88</v>
       </c>
       <c r="S38">
-        <v>4.0199999999999996</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T38">
-        <v>10.16</v>
+        <v>-9.23</v>
       </c>
       <c r="U38">
-        <v>-8.0299999999999994</v>
+        <v>-24.84</v>
       </c>
       <c r="V38">
-        <v>35.270000000000003</v>
+        <v>52.83</v>
       </c>
       <c r="W38">
-        <v>7.98</v>
+        <v>15.4</v>
       </c>
       <c r="X38">
-        <v>38905</v>
+        <v>256080</v>
       </c>
       <c r="Y38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>410</v>
+        <v>1401</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F39">
-        <v>34.97</v>
+        <v>88.88</v>
       </c>
       <c r="G39">
-        <v>7.55</v>
+        <v>12.62</v>
       </c>
       <c r="H39">
-        <v>7.56</v>
+        <v>29.79</v>
       </c>
       <c r="I39">
-        <v>745572.94</v>
+        <v>12461475</v>
       </c>
       <c r="J39">
-        <v>506380</v>
+        <v>5335203</v>
       </c>
       <c r="K39">
-        <v>41964.55</v>
+        <v>2203726</v>
       </c>
       <c r="L39">
-        <v>187980.25</v>
+        <v>312658.5</v>
       </c>
       <c r="M39">
-        <v>2.4900000000000002</v>
+        <v>1.05</v>
       </c>
       <c r="N39">
-        <v>0.223</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O39">
-        <v>6.75</v>
+        <v>9.83</v>
       </c>
       <c r="P39">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q39">
-        <v>20040806</v>
+        <v>19940408</v>
       </c>
       <c r="R39">
-        <v>190461.06</v>
+        <v>1749505.25</v>
       </c>
       <c r="S39">
-        <v>2.52</v>
+        <v>5.87</v>
       </c>
       <c r="T39">
-        <v>1.29</v>
+        <v>-12.91</v>
       </c>
       <c r="U39">
-        <v>-7.16</v>
+        <v>-73.37</v>
       </c>
       <c r="V39">
-        <v>40.46</v>
+        <v>18.84</v>
       </c>
       <c r="W39">
-        <v>9.43</v>
+        <v>1.06</v>
       </c>
       <c r="X39">
-        <v>45907</v>
+        <v>77211</v>
       </c>
       <c r="Y39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>2088</v>
+        <v>346</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40">
-        <v>6.06</v>
+        <v>36.83</v>
       </c>
       <c r="G40">
-        <v>2107.66</v>
+        <v>28.62</v>
       </c>
       <c r="H40">
-        <v>2943.88</v>
+        <v>30.9</v>
       </c>
       <c r="I40">
-        <v>1785750272</v>
+        <v>950466.69</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>18072500</v>
+        <v>7997.22</v>
       </c>
       <c r="L40">
-        <v>14170800</v>
+        <v>274413.09000000003</v>
       </c>
       <c r="M40">
+        <v>0.89</v>
+      </c>
+      <c r="N40">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O40">
+        <v>2.5</v>
+      </c>
+      <c r="P40">
+        <v>2.46</v>
+      </c>
+      <c r="Q40">
+        <v>19940110</v>
+      </c>
+      <c r="R40">
+        <v>149405.76999999999</v>
+      </c>
+      <c r="S40">
         <v>0.48</v>
       </c>
-      <c r="N40">
-        <v>0.44</v>
-      </c>
-      <c r="O40">
-        <v>4.38</v>
-      </c>
-      <c r="P40">
-        <v>0.84</v>
-      </c>
-      <c r="Q40">
-        <v>20060705</v>
-      </c>
-      <c r="R40">
-        <v>55911200</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
       <c r="T40">
-        <v>3.45</v>
+        <v>-11.94</v>
       </c>
       <c r="U40">
-        <v>2.48</v>
+        <v>13.5</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>36.53</v>
+        <v>50.83</v>
       </c>
       <c r="X40">
-        <v>884907</v>
+        <v>99815</v>
       </c>
       <c r="Y40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>1884</v>
+        <v>2296</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F41">
-        <v>16.399999999999999</v>
+        <v>28.17</v>
       </c>
       <c r="G41">
-        <v>148.66999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="H41">
-        <v>148.66999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="I41">
-        <v>11930768</v>
+        <v>2283942</v>
       </c>
       <c r="J41">
-        <v>2016121.75</v>
+        <v>2048007.75</v>
       </c>
       <c r="K41">
-        <v>6747523</v>
+        <v>158261.95000000001</v>
       </c>
       <c r="L41">
-        <v>2473876</v>
+        <v>124985.65</v>
       </c>
       <c r="M41">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="N41">
-        <v>0.34599999999999997</v>
+        <v>2.266</v>
       </c>
       <c r="O41">
-        <v>5.89</v>
+        <v>14.57</v>
       </c>
       <c r="P41">
-        <v>1.29</v>
+        <v>5.84</v>
       </c>
       <c r="Q41">
-        <v>20060801</v>
+        <v>19931215</v>
       </c>
       <c r="R41">
-        <v>3878423.5</v>
+        <v>1210628.5</v>
       </c>
       <c r="S41">
-        <v>2.61</v>
+        <v>11.63</v>
       </c>
       <c r="T41">
-        <v>-21.82</v>
+        <v>10.89</v>
       </c>
       <c r="U41">
-        <v>-54.01</v>
+        <v>10.16</v>
       </c>
       <c r="V41">
-        <v>16.62</v>
+        <v>31.01</v>
       </c>
       <c r="W41">
-        <v>16.29</v>
+        <v>14.49</v>
       </c>
       <c r="X41">
-        <v>183469</v>
+        <v>38673</v>
       </c>
       <c r="Y41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>1053</v>
+        <v>1951</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F42">
-        <v>12.5</v>
+        <v>346.63</v>
       </c>
       <c r="G42">
-        <v>85.22</v>
+        <v>4.16</v>
       </c>
       <c r="H42">
-        <v>145.25</v>
+        <v>5.22</v>
       </c>
       <c r="I42">
-        <v>22916228</v>
+        <v>1300654</v>
       </c>
       <c r="J42">
-        <v>2075384.75</v>
+        <v>914475.38</v>
       </c>
       <c r="K42">
-        <v>15216030</v>
+        <v>145834.06</v>
       </c>
       <c r="L42">
-        <v>1650953.13</v>
+        <v>212387.3</v>
       </c>
       <c r="M42">
-        <v>1.1399999999999999</v>
+        <v>4.07</v>
       </c>
       <c r="N42">
-        <v>0.59</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O42">
-        <v>5.13</v>
+        <v>5.97</v>
       </c>
       <c r="P42">
-        <v>1.62</v>
+        <v>2.97</v>
       </c>
       <c r="Q42">
-        <v>20060818</v>
+        <v>19930928</v>
       </c>
       <c r="R42">
-        <v>3452767.5</v>
+        <v>46009.62</v>
       </c>
       <c r="S42">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="T42">
-        <v>3.72</v>
+        <v>119.8</v>
       </c>
       <c r="U42">
-        <v>15.07</v>
+        <v>142.83000000000001</v>
       </c>
       <c r="V42">
-        <v>24.78</v>
+        <v>13.43</v>
       </c>
       <c r="W42">
-        <v>8.4600000000000009</v>
+        <v>0.24</v>
       </c>
       <c r="X42">
-        <v>204815</v>
+        <v>81460</v>
       </c>
       <c r="Y42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>471</v>
+        <v>1469</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43">
-        <v>19.7</v>
+        <v>20.77</v>
       </c>
       <c r="G43">
-        <v>227.55</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="H43">
-        <v>231.74</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="I43">
-        <v>11678478</v>
+        <v>3042811.5</v>
       </c>
       <c r="J43">
-        <v>2374656</v>
+        <v>2565958</v>
       </c>
       <c r="K43">
-        <v>3468801.5</v>
+        <v>9327.3700000000008</v>
       </c>
       <c r="L43">
-        <v>858377.88</v>
+        <v>6035.75</v>
       </c>
       <c r="M43">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="N43">
-        <v>0.29899999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="O43">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="P43">
-        <v>2.25</v>
+        <v>4.18</v>
       </c>
       <c r="Q43">
-        <v>20061026</v>
+        <v>19930924</v>
       </c>
       <c r="R43">
-        <v>2432034.5</v>
+        <v>83407.86</v>
       </c>
       <c r="S43">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="T43">
-        <v>6.26</v>
+        <v>205.01</v>
       </c>
       <c r="U43">
-        <v>5.74</v>
+        <v>126.35</v>
       </c>
       <c r="V43">
-        <v>30.08</v>
+        <v>29.16</v>
       </c>
       <c r="W43">
-        <v>22.13</v>
+        <v>4.62</v>
       </c>
       <c r="X43">
-        <v>273125</v>
+        <v>99388</v>
       </c>
       <c r="Y43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>104</v>
+        <v>1356</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F44">
-        <v>37.39</v>
+        <v>18.04</v>
       </c>
       <c r="G44">
-        <v>208.24</v>
+        <v>20.03</v>
       </c>
       <c r="H44">
-        <v>282.64999999999998</v>
+        <v>25.09</v>
       </c>
       <c r="I44">
-        <v>269695104</v>
+        <v>2986584.5</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1496795.88</v>
       </c>
       <c r="K44">
-        <v>1935600</v>
+        <v>926746.5</v>
       </c>
       <c r="L44">
-        <v>5500700</v>
+        <v>622875.31000000006</v>
       </c>
       <c r="M44">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="N44">
-        <v>0.66</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="O44">
-        <v>10.74</v>
+        <v>7.19</v>
       </c>
       <c r="P44">
-        <v>2.36</v>
+        <v>3.15</v>
       </c>
       <c r="Q44">
-        <v>20070109</v>
+        <v>19930610</v>
       </c>
       <c r="R44">
-        <v>12255800</v>
+        <v>757088.94</v>
       </c>
       <c r="S44">
-        <v>4.34</v>
+        <v>3.02</v>
       </c>
       <c r="T44">
-        <v>7.51</v>
+        <v>22.45</v>
       </c>
       <c r="U44">
-        <v>-44.88</v>
+        <v>20.68</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>43.07</v>
       </c>
       <c r="W44">
-        <v>3.48</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="X44">
-        <v>157327</v>
+        <v>60181</v>
       </c>
       <c r="Y44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>1129</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F45">
-        <v>172.18</v>
+        <v>34.28</v>
       </c>
       <c r="G45">
-        <v>109.6</v>
+        <v>14.37</v>
       </c>
       <c r="H45">
-        <v>149.04</v>
+        <v>14.37</v>
       </c>
       <c r="I45">
-        <v>19007694</v>
+        <v>2317898.5</v>
       </c>
       <c r="J45">
-        <v>6642623</v>
+        <v>700880.88</v>
       </c>
       <c r="K45">
-        <v>7435207</v>
+        <v>140467.79999999999</v>
       </c>
       <c r="L45">
-        <v>1865839.63</v>
+        <v>91915.5</v>
       </c>
       <c r="M45">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="N45">
-        <v>0.02</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O45">
-        <v>2.56</v>
+        <v>7.36</v>
       </c>
       <c r="P45">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="Q45">
-        <v>20070430</v>
+        <v>19920902</v>
       </c>
       <c r="R45">
-        <v>-448859</v>
+        <v>592560.06000000006</v>
       </c>
       <c r="S45">
-        <v>-0.3</v>
+        <v>4.12</v>
       </c>
       <c r="T45">
-        <v>16.68</v>
+        <v>-10.87</v>
       </c>
       <c r="U45">
-        <v>170.82</v>
+        <v>-43.6</v>
       </c>
       <c r="V45">
-        <v>7.53</v>
+        <v>15.76</v>
       </c>
       <c r="W45">
-        <v>0.28000000000000003</v>
+        <v>3.06</v>
       </c>
       <c r="X45">
-        <v>478870</v>
+        <v>112681</v>
       </c>
       <c r="Y45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>1154</v>
+        <v>105</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F46">
-        <v>16.95</v>
+        <v>23.75</v>
       </c>
       <c r="G46">
-        <v>164.91</v>
+        <v>13.04</v>
       </c>
       <c r="H46">
-        <v>198.9</v>
+        <v>20.75</v>
       </c>
       <c r="I46">
-        <v>57166400</v>
+        <v>1692808.75</v>
       </c>
       <c r="J46">
-        <v>13346300</v>
+        <v>211997.3</v>
       </c>
       <c r="K46">
-        <v>31648900</v>
+        <v>1129666.75</v>
       </c>
       <c r="L46">
-        <v>7472900</v>
+        <v>126059.17</v>
       </c>
       <c r="M46">
-        <v>3.76</v>
+        <v>0.61</v>
       </c>
       <c r="N46">
-        <v>1.1419999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="O46">
-        <v>15.7</v>
+        <v>3.84</v>
       </c>
       <c r="P46">
-        <v>1.23</v>
+        <v>2.84</v>
       </c>
       <c r="Q46">
-        <v>20071009</v>
+        <v>19920228</v>
       </c>
       <c r="R46">
-        <v>19678600</v>
+        <v>372950.53</v>
       </c>
       <c r="S46">
-        <v>9.89</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.42</v>
+        <v>21.29</v>
       </c>
       <c r="U46">
-        <v>40.68</v>
+        <v>81.41</v>
       </c>
       <c r="V46">
-        <v>39.51</v>
+        <v>27.48</v>
       </c>
       <c r="W46">
-        <v>12.4</v>
+        <v>10.96</v>
       </c>
       <c r="X46">
-        <v>201755</v>
+        <v>171075</v>
       </c>
       <c r="Y46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>1721</v>
+        <v>1481</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47">
-        <v>626.61</v>
+        <v>10.81</v>
       </c>
       <c r="G47">
-        <v>1619.22</v>
+        <v>97.09</v>
       </c>
       <c r="H47">
-        <v>1830.21</v>
+        <v>110.39</v>
       </c>
       <c r="I47">
-        <v>240598816</v>
+        <v>83067424</v>
       </c>
       <c r="J47">
-        <v>41510200</v>
+        <v>72129544</v>
       </c>
       <c r="K47">
-        <v>65537100</v>
+        <v>681079.31</v>
       </c>
       <c r="L47">
-        <v>12851600</v>
+        <v>826826.75</v>
       </c>
       <c r="M47">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N47">
-        <v>9.0000000000000011E-3</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="O47">
-        <v>6.46</v>
+        <v>10.28</v>
       </c>
       <c r="P47">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="Q47">
-        <v>20071105</v>
+        <v>19910129</v>
       </c>
       <c r="R47">
-        <v>69999600</v>
+        <v>6120027</v>
       </c>
       <c r="S47">
-        <v>3.82</v>
+        <v>5.54</v>
       </c>
       <c r="T47">
-        <v>-11.85</v>
+        <v>22.98</v>
       </c>
       <c r="U47">
-        <v>-94.37</v>
+        <v>16.02</v>
       </c>
       <c r="V47">
-        <v>22.65</v>
+        <v>29.41</v>
       </c>
       <c r="W47">
-        <v>0.15</v>
+        <v>8.74</v>
       </c>
       <c r="X47">
-        <v>591681</v>
+        <v>339309</v>
       </c>
       <c r="Y47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y47">
-    <sortCondition ref="Q1"/>
+  <sortState ref="A2:Y48">
+    <sortCondition descending="1" ref="Q1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
